--- a/data/ucues_alluc.xlsx
+++ b/data/ucues_alluc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanolan\OneDrive\IR_Folder\UCSD_Gaps_git\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanolan\OneDrive\IR_Folder\UCSD_Gaps_Quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FD69F7-E2DE-46E3-9C52-1893E2990FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA7AE82-A25E-4BE5-960C-15E06081C133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1390" yWindow="3690" windowWidth="19200" windowHeight="5180" xr2:uid="{27077269-9732-4CAA-AC77-88FD1CE5D0EE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{27077269-9732-4CAA-AC77-88FD1CE5D0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C231E6-8F8A-44F7-8087-CF662AB14A00}">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112:J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1158,194 +1158,212 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10">
         <v>2022</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J2" s="9">
-        <v>0.57999999999999996</v>
+        <v>0.15</v>
+      </c>
+      <c r="K2">
+        <v>8073</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="10">
         <v>2022</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" s="9">
-        <v>0.56999999999999995</v>
+        <v>0.16</v>
+      </c>
+      <c r="K3">
+        <v>8960</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10">
         <v>2022</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="9">
-        <v>0.57999999999999996</v>
+        <v>0.15</v>
+      </c>
+      <c r="K4">
+        <v>8330</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10">
         <v>2022</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="9">
-        <v>0.44</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K5">
+        <v>7830</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10">
         <v>2022</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="9">
-        <v>0.49</v>
+        <v>0.19</v>
+      </c>
+      <c r="K6">
+        <v>10289</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10">
         <v>2022</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="9">
-        <v>0.57999999999999996</v>
+        <v>0.2</v>
+      </c>
+      <c r="K7">
+        <v>11043</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1353,7 +1371,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1365,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -1374,10 +1392,10 @@
         <v>31</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="9">
-        <v>0.56999999999999995</v>
+        <v>0.65999999999999992</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1385,7 +1403,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1397,19 +1415,19 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>31</v>
+      <c r="H9" t="s">
+        <v>25</v>
       </c>
       <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0.51</v>
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.34</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1417,7 +1435,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1429,7 +1447,7 @@
         <v>12</v>
       </c>
       <c r="F10">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -1441,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="9">
-        <v>0.53</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1449,7 +1467,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1467,13 +1485,13 @@
         <v>13</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="9">
-        <v>0.56999999999999995</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1481,7 +1499,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1498,22 +1516,22 @@
       <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>31</v>
+      <c r="H12" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0.64</v>
+        <v>1</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.24</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1528,21 +1546,21 @@
         <v>2020</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0.05</v>
+        <v>2</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.61</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>17</v>
@@ -1560,24 +1578,24 @@
         <v>2020</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" s="8">
-        <v>0.06</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1589,27 +1607,27 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0.06</v>
+        <v>3</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1621,27 +1639,27 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>2</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0.18</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1653,27 +1671,27 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17" s="8">
-        <v>0.06</v>
+      <c r="J17" s="9">
+        <v>0.24</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1688,24 +1706,24 @@
         <v>2020</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0.06</v>
+        <v>2</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1720,24 +1738,24 @@
         <v>2020</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1749,27 +1767,27 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0.08</v>
+        <v>3</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1781,27 +1799,27 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0.06</v>
+        <v>2</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.17</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1813,27 +1831,27 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22" s="8">
-        <v>0.06</v>
+      <c r="J22" s="9">
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1848,24 +1866,24 @@
         <v>2020</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" s="9">
-        <v>0.95</v>
+        <v>0.45999999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1880,24 +1898,24 @@
         <v>2020</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0.94</v>
+        <v>1</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.54</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1909,24 +1927,24 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" s="9">
-        <v>0.94</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>20</v>
@@ -1941,27 +1959,27 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26" s="9">
-        <v>0.92999999999999994</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1973,27 +1991,27 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" s="9">
-        <v>0.94</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -2008,24 +2026,24 @@
         <v>2020</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" s="9">
-        <v>0.94</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -2040,24 +2058,24 @@
         <v>2020</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0.92999999999999994</v>
+        <v>1</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0.45</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -2069,27 +2087,27 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" s="9">
-        <v>0.92</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -2101,27 +2119,27 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" s="9">
-        <v>0.94</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -2133,19 +2151,19 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" s="9">
-        <v>0.94</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2153,7 +2171,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -2170,14 +2188,14 @@
       <c r="G33" t="s">
         <v>13</v>
       </c>
-      <c r="H33" t="s">
-        <v>25</v>
+      <c r="H33" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33" s="8">
-        <v>0.34</v>
+        <v>2</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0.62</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2185,7 +2203,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -2209,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="8">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2217,7 +2235,7 @@
         <v>10</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -2229,19 +2247,19 @@
         <v>12</v>
       </c>
       <c r="F35">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G35" t="s">
         <v>13</v>
       </c>
-      <c r="H35" t="s">
-        <v>25</v>
+      <c r="H35" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35" s="8">
-        <v>0.4</v>
+        <v>3</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2249,7 +2267,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -2261,19 +2279,19 @@
         <v>12</v>
       </c>
       <c r="F36">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
       </c>
-      <c r="H36" t="s">
-        <v>25</v>
+      <c r="H36" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36" s="8">
-        <v>0.54</v>
+        <v>2</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0.18</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2281,7 +2299,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -2293,19 +2311,19 @@
         <v>12</v>
       </c>
       <c r="F37">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G37" t="s">
         <v>13</v>
       </c>
-      <c r="H37" t="s">
-        <v>25</v>
+      <c r="H37" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37" s="8">
-        <v>0.45</v>
+      <c r="J37" s="9">
+        <v>0.24</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2313,7 +2331,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -2330,14 +2348,14 @@
       <c r="G38" t="s">
         <v>13</v>
       </c>
-      <c r="H38" t="s">
-        <v>25</v>
+      <c r="H38" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38" s="8">
-        <v>0.38</v>
+        <v>2</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0.6</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2377,7 +2395,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -2389,19 +2407,19 @@
         <v>12</v>
       </c>
       <c r="F40">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G40" t="s">
         <v>13</v>
       </c>
-      <c r="H40" t="s">
-        <v>25</v>
+      <c r="H40" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40" s="8">
-        <v>0.42</v>
+        <v>3</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2409,7 +2427,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -2421,19 +2439,19 @@
         <v>12</v>
       </c>
       <c r="F41">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
       </c>
-      <c r="H41" t="s">
-        <v>25</v>
+      <c r="H41" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" s="9">
-        <v>0.44</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2441,7 +2459,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -2453,19 +2471,19 @@
         <v>12</v>
       </c>
       <c r="F42">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
       </c>
-      <c r="H42" t="s">
-        <v>25</v>
+      <c r="H42" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42" s="8">
-        <v>0.39</v>
+      <c r="J42" s="9">
+        <v>0.24</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2473,7 +2491,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -2490,14 +2508,14 @@
       <c r="G43" t="s">
         <v>13</v>
       </c>
-      <c r="H43" t="s">
-        <v>25</v>
+      <c r="H43" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" s="8">
-        <v>0.27</v>
+        <v>2</v>
+      </c>
+      <c r="J43" s="9">
+        <v>0.58000000000000007</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2505,7 +2523,7 @@
         <v>10</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -2517,19 +2535,19 @@
         <v>12</v>
       </c>
       <c r="F44">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>32</v>
+      <c r="H44" t="s">
+        <v>25</v>
       </c>
       <c r="I44">
-        <v>2</v>
-      </c>
-      <c r="J44" s="9">
-        <v>0.18</v>
+        <v>1</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0.42</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2537,7 +2555,7 @@
         <v>10</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -2555,13 +2573,13 @@
         <v>13</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" s="9">
-        <v>0.18</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2569,7 +2587,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -2593,7 +2611,7 @@
         <v>2</v>
       </c>
       <c r="J46" s="9">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2601,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
@@ -2618,14 +2636,14 @@
       <c r="G47" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>32</v>
+      <c r="H47" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" s="9">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2633,7 +2651,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -2645,19 +2663,19 @@
         <v>12</v>
       </c>
       <c r="F48">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48" s="9">
-        <v>0.2</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2665,7 +2683,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -2677,19 +2695,19 @@
         <v>12</v>
       </c>
       <c r="F49">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="6" t="s">
-        <v>32</v>
+      <c r="H49" t="s">
+        <v>25</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" s="9">
-        <v>0.18</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2697,7 +2715,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -2709,19 +2727,19 @@
         <v>12</v>
       </c>
       <c r="F50">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G50" t="s">
         <v>13</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50" s="9">
-        <v>0.19</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2729,7 +2747,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -2741,7 +2759,7 @@
         <v>12</v>
       </c>
       <c r="F51">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G51" t="s">
         <v>13</v>
@@ -2753,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="9">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2778,14 +2796,14 @@
       <c r="G52" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="6" t="s">
-        <v>32</v>
+      <c r="H52" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="I52">
-        <v>2</v>
-      </c>
-      <c r="J52" s="9">
-        <v>0.2</v>
+        <v>1</v>
+      </c>
+      <c r="J52" s="8">
+        <v>0.27</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2805,19 +2823,19 @@
         <v>12</v>
       </c>
       <c r="F53">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I53">
         <v>2</v>
       </c>
       <c r="J53" s="9">
-        <v>0.18</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2825,7 +2843,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
@@ -2837,19 +2855,19 @@
         <v>12</v>
       </c>
       <c r="F54">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G54" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="6" t="s">
-        <v>32</v>
+      <c r="H54" t="s">
+        <v>25</v>
       </c>
       <c r="I54">
-        <v>2</v>
-      </c>
-      <c r="J54" s="9">
-        <v>0.15</v>
+        <v>1</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0.39</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2857,7 +2875,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
@@ -2869,7 +2887,7 @@
         <v>12</v>
       </c>
       <c r="F55">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G55" t="s">
         <v>13</v>
@@ -2878,10 +2896,10 @@
         <v>31</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55" s="9">
-        <v>0.65999999999999992</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2889,7 +2907,7 @@
         <v>10</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
@@ -2901,19 +2919,19 @@
         <v>12</v>
       </c>
       <c r="F56">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G56" t="s">
         <v>13</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I56">
         <v>2</v>
       </c>
       <c r="J56" s="9">
-        <v>0.61</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2921,7 +2939,7 @@
         <v>10</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
@@ -2933,19 +2951,19 @@
         <v>12</v>
       </c>
       <c r="F57">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G57" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>31</v>
+      <c r="H57" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="I57">
-        <v>2</v>
-      </c>
-      <c r="J57" s="9">
-        <v>0.6</v>
+        <v>1</v>
+      </c>
+      <c r="J57" s="8">
+        <v>0.25</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2953,7 +2971,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
@@ -2977,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="9">
-        <v>0.45999999999999996</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2985,7 +3003,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -3002,14 +3020,14 @@
       <c r="G59" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="6" t="s">
-        <v>31</v>
+      <c r="H59" t="s">
+        <v>25</v>
       </c>
       <c r="I59">
-        <v>2</v>
-      </c>
-      <c r="J59" s="9">
-        <v>0.55000000000000004</v>
+        <v>1</v>
+      </c>
+      <c r="J59" s="8">
+        <v>0.27</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3017,7 +3035,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -3029,7 +3047,7 @@
         <v>12</v>
       </c>
       <c r="F60">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
@@ -3038,10 +3056,10 @@
         <v>31</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" s="9">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3049,7 +3067,7 @@
         <v>10</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -3061,19 +3079,19 @@
         <v>12</v>
       </c>
       <c r="F61">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I61">
         <v>2</v>
       </c>
       <c r="J61" s="9">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3081,7 +3099,7 @@
         <v>10</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -3093,27 +3111,27 @@
         <v>12</v>
       </c>
       <c r="F62">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
       </c>
-      <c r="H62" s="6" t="s">
-        <v>31</v>
+      <c r="H62" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" s="9">
-        <v>0.58000000000000007</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -3125,27 +3143,27 @@
         <v>12</v>
       </c>
       <c r="F63">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
       </c>
       <c r="I63">
-        <v>3</v>
-      </c>
-      <c r="J63" s="9">
-        <v>0.56000000000000005</v>
+        <v>1</v>
+      </c>
+      <c r="J63" s="8">
+        <v>0.05</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -3160,24 +3178,24 @@
         <v>2020</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="H64" t="s">
+        <v>29</v>
       </c>
       <c r="I64">
         <v>2</v>
       </c>
       <c r="J64" s="9">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -3192,56 +3210,56 @@
         <v>2020</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>28</v>
       </c>
       <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" s="8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66">
+        <v>2020</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66">
         <v>2</v>
       </c>
-      <c r="J65" s="9">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66">
-        <v>2022</v>
-      </c>
-      <c r="G66" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66" s="8">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="J66" s="9">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
@@ -3253,24 +3271,24 @@
         <v>12</v>
       </c>
       <c r="F67">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>28</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67" s="9">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="J67" s="8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>18</v>
@@ -3285,24 +3303,24 @@
         <v>12</v>
       </c>
       <c r="F68">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>29</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" s="9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>20</v>
@@ -3317,60 +3335,60 @@
         <v>12</v>
       </c>
       <c r="F69">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>28</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69" s="9">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="J69" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70">
+        <v>2020</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70" s="9">
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70">
-        <v>2022</v>
-      </c>
-      <c r="G70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70" s="9">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -3381,27 +3399,27 @@
         <v>12</v>
       </c>
       <c r="F71">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>28</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71" s="9">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="J71" s="8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -3413,27 +3431,27 @@
         <v>12</v>
       </c>
       <c r="F72">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>29</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" s="9">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -3445,27 +3463,27 @@
         <v>12</v>
       </c>
       <c r="F73">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73" s="9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="J73" s="8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
@@ -3477,27 +3495,27 @@
         <v>12</v>
       </c>
       <c r="F74">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>29</v>
       </c>
       <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74" s="8">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="J74" s="9">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
@@ -3509,27 +3527,27 @@
         <v>12</v>
       </c>
       <c r="F75">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -3541,229 +3559,211 @@
         <v>12</v>
       </c>
       <c r="F76">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
+        <v>29</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" s="9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="10">
-        <v>2022</v>
+      <c r="D77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77">
+        <v>2020</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>28</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="K77">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="J77" s="8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="10">
-        <v>2022</v>
+      <c r="D78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78">
+        <v>2020</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>29</v>
       </c>
       <c r="I78">
         <v>2</v>
       </c>
       <c r="J78" s="9">
-        <v>0.13</v>
-      </c>
-      <c r="K78">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="10">
-        <v>2022</v>
+      <c r="D79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79">
+        <v>2020</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>28</v>
       </c>
       <c r="I79">
-        <v>3</v>
-      </c>
-      <c r="J79" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K79">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="J79" s="8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="10">
-        <v>2022</v>
+      <c r="D80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80">
+        <v>2020</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>29</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J80" s="9">
-        <v>0.22</v>
-      </c>
-      <c r="K80">
-        <v>1891</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="10">
-        <v>2022</v>
+      <c r="D81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81">
+        <v>2020</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="H81" t="s">
+        <v>28</v>
       </c>
       <c r="I81">
-        <v>5</v>
-      </c>
-      <c r="J81" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="K81">
-        <v>1480</v>
+        <v>1</v>
+      </c>
+      <c r="J81" s="8">
+        <v>0.06</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="10">
-        <v>2022</v>
+      <c r="D82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82">
+        <v>2020</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="H82" t="s">
+        <v>29</v>
       </c>
       <c r="I82">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J82" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="K82">
-        <v>1544</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3783,27 +3783,24 @@
         <v>12</v>
       </c>
       <c r="F83" s="10">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J83" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="K83">
-        <v>8779</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>42</v>
@@ -3818,22 +3815,19 @@
         <v>12</v>
       </c>
       <c r="F84" s="10">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="G84" t="s">
         <v>34</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J84" s="9">
-        <v>0.19</v>
-      </c>
-      <c r="K84">
-        <v>10289</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3853,27 +3847,24 @@
         <v>12</v>
       </c>
       <c r="F85" s="10">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="G85" t="s">
         <v>34</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J85" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K85">
-        <v>7522</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>42</v>
@@ -3888,22 +3879,19 @@
         <v>12</v>
       </c>
       <c r="F86" s="10">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="G86" t="s">
         <v>34</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J86" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="K86">
-        <v>8330</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3923,27 +3911,24 @@
         <v>12</v>
       </c>
       <c r="F87" s="10">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="G87" t="s">
         <v>34</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J87" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K87">
-        <v>7770</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>42</v>
@@ -3958,22 +3943,19 @@
         <v>12</v>
       </c>
       <c r="F88" s="10">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="G88" t="s">
         <v>34</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I88">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J88" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="K88">
-        <v>8073</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3993,27 +3975,24 @@
         <v>12</v>
       </c>
       <c r="F89" s="10">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G89" t="s">
         <v>34</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J89" s="9">
-        <v>0.22</v>
-      </c>
-      <c r="K89">
-        <v>11771</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>42</v>
@@ -4028,22 +4007,19 @@
         <v>12</v>
       </c>
       <c r="F90" s="10">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G90" t="s">
         <v>34</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J90" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="K90">
-        <v>11043</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4063,27 +4039,24 @@
         <v>12</v>
       </c>
       <c r="F91" s="10">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="K91">
-        <v>9030</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>42</v>
@@ -4098,22 +4071,19 @@
         <v>12</v>
       </c>
       <c r="F92" s="10">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G92" t="s">
         <v>34</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J92" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K92">
-        <v>7830</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4133,27 +4103,24 @@
         <v>12</v>
       </c>
       <c r="F93" s="10">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G93" t="s">
         <v>34</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J93" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="K93">
-        <v>9507</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>42</v>
@@ -4168,22 +4135,19 @@
         <v>12</v>
       </c>
       <c r="F94" s="10">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G94" t="s">
         <v>34</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I94">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J94" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="K94">
-        <v>8960</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4244,16 +4208,16 @@
         <v>34</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J96" s="9">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>33</v>
       </c>
@@ -4276,16 +4240,16 @@
         <v>34</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J97" s="9">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -4308,16 +4272,16 @@
         <v>34</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J98" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -4340,16 +4304,16 @@
         <v>34</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J99" s="9">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>33</v>
       </c>
@@ -4381,12 +4345,12 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>33</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
@@ -4398,27 +4362,30 @@
         <v>12</v>
       </c>
       <c r="F101" s="10">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G101" t="s">
         <v>34</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I101">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J101" s="9">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K101">
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>33</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
@@ -4430,7 +4397,7 @@
         <v>12</v>
       </c>
       <c r="F102" s="10">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G102" t="s">
         <v>34</v>
@@ -4442,15 +4409,18 @@
         <v>5</v>
       </c>
       <c r="J102" s="9">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+        <v>0.17</v>
+      </c>
+      <c r="K102">
+        <v>9507</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>33</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
@@ -4462,27 +4432,30 @@
         <v>12</v>
       </c>
       <c r="F103" s="10">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J103" s="9">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K103">
+        <v>7522</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>33</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
         <v>11</v>
@@ -4494,7 +4467,7 @@
         <v>12</v>
       </c>
       <c r="F104" s="10">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G104" t="s">
         <v>34</v>
@@ -4506,15 +4479,18 @@
         <v>3</v>
       </c>
       <c r="J104" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+        <v>0.17</v>
+      </c>
+      <c r="K104">
+        <v>9030</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>33</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s">
         <v>11</v>
@@ -4526,27 +4502,30 @@
         <v>12</v>
       </c>
       <c r="F105" s="10">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G105" t="s">
         <v>34</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" s="9">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
+        <v>0.16</v>
+      </c>
+      <c r="K105">
+        <v>8779</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
         <v>33</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C106" t="s">
         <v>11</v>
@@ -4558,7 +4537,7 @@
         <v>12</v>
       </c>
       <c r="F106" s="10">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G106" t="s">
         <v>34</v>
@@ -4570,15 +4549,18 @@
         <v>1</v>
       </c>
       <c r="J106" s="9">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+        <v>0.22</v>
+      </c>
+      <c r="K106">
+        <v>11771</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>33</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C107" t="s">
         <v>11</v>
@@ -4590,7 +4572,7 @@
         <v>12</v>
       </c>
       <c r="F107" s="10">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G107" t="s">
         <v>34</v>
@@ -4605,12 +4587,12 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>33</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
@@ -4622,27 +4604,27 @@
         <v>12</v>
       </c>
       <c r="F108" s="10">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G108" t="s">
         <v>34</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J108" s="9">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>33</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
@@ -4654,7 +4636,7 @@
         <v>12</v>
       </c>
       <c r="F109" s="10">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G109" t="s">
         <v>34</v>
@@ -4666,15 +4648,15 @@
         <v>4</v>
       </c>
       <c r="J109" s="9">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>33</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C110" t="s">
         <v>11</v>
@@ -4686,27 +4668,27 @@
         <v>12</v>
       </c>
       <c r="F110" s="10">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G110" t="s">
         <v>34</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J110" s="9">
         <v>0.15</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>33</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -4718,27 +4700,27 @@
         <v>12</v>
       </c>
       <c r="F111" s="10">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G111" t="s">
         <v>34</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J111" s="9">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>33</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -4750,22 +4732,22 @@
         <v>12</v>
       </c>
       <c r="F112" s="10">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G112" t="s">
         <v>34</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J112" s="9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -4797,7 +4779,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>33</v>
       </c>
@@ -4820,16 +4802,16 @@
         <v>34</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J114" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>33</v>
       </c>
@@ -4861,7 +4843,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>33</v>
       </c>
@@ -4884,16 +4866,16 @@
         <v>34</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" s="9">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -4916,16 +4898,16 @@
         <v>34</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J117" s="9">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -4948,21 +4930,21 @@
         <v>34</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J118" s="9">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>33</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
@@ -4974,7 +4956,7 @@
         <v>12</v>
       </c>
       <c r="F119" s="10">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="G119" t="s">
         <v>34</v>
@@ -4986,15 +4968,15 @@
         <v>6</v>
       </c>
       <c r="J119" s="9">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>33</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
@@ -5006,27 +4988,27 @@
         <v>12</v>
       </c>
       <c r="F120" s="10">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="G120" t="s">
         <v>34</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J120" s="9">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>33</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C121" t="s">
         <v>11</v>
@@ -5038,27 +5020,27 @@
         <v>12</v>
       </c>
       <c r="F121" s="10">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J121" s="9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>33</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C122" t="s">
         <v>11</v>
@@ -5070,27 +5052,27 @@
         <v>12</v>
       </c>
       <c r="F122" s="10">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="G122" t="s">
         <v>34</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J122" s="9">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>33</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C123" t="s">
         <v>11</v>
@@ -5102,27 +5084,27 @@
         <v>12</v>
       </c>
       <c r="F123" s="10">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="G123" t="s">
         <v>34</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J123" s="9">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>33</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
@@ -5134,7 +5116,7 @@
         <v>12</v>
       </c>
       <c r="F124" s="10">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="G124" t="s">
         <v>34</v>
@@ -5149,7 +5131,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>33</v>
       </c>
@@ -5166,7 +5148,7 @@
         <v>12</v>
       </c>
       <c r="F125" s="10">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="G125" t="s">
         <v>34</v>
@@ -5178,10 +5160,13 @@
         <v>6</v>
       </c>
       <c r="J125" s="9">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+        <v>0.18</v>
+      </c>
+      <c r="K125">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>33</v>
       </c>
@@ -5198,22 +5183,25 @@
         <v>12</v>
       </c>
       <c r="F126" s="10">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="G126" t="s">
         <v>34</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J126" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+        <v>0.22</v>
+      </c>
+      <c r="K126">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -5230,22 +5218,25 @@
         <v>12</v>
       </c>
       <c r="F127" s="10">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="G127" t="s">
         <v>34</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J127" s="9">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+        <v>0.13</v>
+      </c>
+      <c r="K127">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -5262,22 +5253,25 @@
         <v>12</v>
       </c>
       <c r="F128" s="10">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="G128" t="s">
         <v>34</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J128" s="9">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -5294,22 +5288,25 @@
         <v>12</v>
       </c>
       <c r="F129" s="10">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="G129" t="s">
         <v>34</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J129" s="9">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K129">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -5326,24 +5323,30 @@
         <v>12</v>
       </c>
       <c r="F130" s="10">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="G130" t="s">
         <v>34</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" s="9">
-        <v>0.2</v>
+        <v>0.15</v>
+      </c>
+      <c r="K130">
+        <v>1280</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K76">
-    <sortCondition ref="H2:H76"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K131">
+    <sortCondition ref="A2:A131"/>
+    <sortCondition ref="B2:B131"/>
+    <sortCondition ref="F2:F131"/>
+    <sortCondition ref="H2:H131"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/data/ucues_alluc.xlsx
+++ b/data/ucues_alluc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanolan\OneDrive\IR_Folder\UCSD_Gaps_Quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA7AE82-A25E-4BE5-960C-15E06081C133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07903D6-C48C-4ECC-87D6-88199EEB1A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{27077269-9732-4CAA-AC77-88FD1CE5D0EE}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19200" windowHeight="6280" xr2:uid="{27077269-9732-4CAA-AC77-88FD1CE5D0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="51">
   <si>
     <t>q</t>
   </si>
@@ -168,6 +168,30 @@
   </si>
   <si>
     <t>All UC</t>
+  </si>
+  <si>
+    <t>Given the grants and scholarships, if any, that you receive, the total cost of attending this university is manageable</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Strongly Agree</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>Somewhat Agree</t>
+  </si>
+  <si>
+    <t>Somewhat Disagree</t>
+  </si>
+  <si>
+    <t>Disagree</t>
+  </si>
+  <si>
+    <t>Strongly Disagree</t>
   </si>
 </sst>
 </file>
@@ -1105,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C231E6-8F8A-44F7-8087-CF662AB14A00}">
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112:J118"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5341,6 +5365,1641 @@
         <v>1280</v>
       </c>
     </row>
+    <row r="131" spans="1:11">
+      <c r="A131" t="s">
+        <v>43</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G131" t="s">
+        <v>44</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I131">
+        <v>6</v>
+      </c>
+      <c r="J131" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K131">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
+        <v>43</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G132" t="s">
+        <v>44</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I132">
+        <v>5</v>
+      </c>
+      <c r="J132" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="K132">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" t="s">
+        <v>43</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G133" t="s">
+        <v>44</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I133">
+        <v>4</v>
+      </c>
+      <c r="J133" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="K133">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" t="s">
+        <v>43</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G134" t="s">
+        <v>44</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="K134">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" t="s">
+        <v>43</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G135" t="s">
+        <v>44</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="K135">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" t="s">
+        <v>43</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G136" t="s">
+        <v>44</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K136">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" t="s">
+        <v>43</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G137" t="s">
+        <v>44</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I137">
+        <v>6</v>
+      </c>
+      <c r="J137" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K137">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" t="s">
+        <v>43</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G138" t="s">
+        <v>44</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I138">
+        <v>5</v>
+      </c>
+      <c r="J138" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="K138">
+        <v>11128</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" t="s">
+        <v>43</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G139" t="s">
+        <v>44</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I139">
+        <v>4</v>
+      </c>
+      <c r="J139" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="K139">
+        <v>17608</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" t="s">
+        <v>43</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G140" t="s">
+        <v>44</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I140">
+        <v>3</v>
+      </c>
+      <c r="J140" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="K140">
+        <v>9939</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" t="s">
+        <v>43</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G141" t="s">
+        <v>44</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="K141">
+        <v>6183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G142" t="s">
+        <v>44</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="K142">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G143" t="s">
+        <v>44</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I143">
+        <v>6</v>
+      </c>
+      <c r="J143" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K143">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" t="s">
+        <v>43</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G144" t="s">
+        <v>44</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I144">
+        <v>5</v>
+      </c>
+      <c r="J144" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="K144">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" t="s">
+        <v>43</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G145" t="s">
+        <v>44</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I145">
+        <v>4</v>
+      </c>
+      <c r="J145" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="K145">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" t="s">
+        <v>43</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G146" t="s">
+        <v>44</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I146">
+        <v>3</v>
+      </c>
+      <c r="J146" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K146">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" t="s">
+        <v>43</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G147" t="s">
+        <v>44</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K147">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" t="s">
+        <v>43</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G148" t="s">
+        <v>44</v>
+      </c>
+      <c r="H148" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K148">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" t="s">
+        <v>43</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G149" t="s">
+        <v>44</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I149">
+        <v>6</v>
+      </c>
+      <c r="J149" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K149">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" t="s">
+        <v>43</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C150" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G150" t="s">
+        <v>44</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I150">
+        <v>5</v>
+      </c>
+      <c r="J150" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K150">
+        <v>13530</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" t="s">
+        <v>43</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C151" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G151" t="s">
+        <v>44</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I151">
+        <v>4</v>
+      </c>
+      <c r="J151" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="K151">
+        <v>21516</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" t="s">
+        <v>43</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G152" t="s">
+        <v>44</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I152">
+        <v>3</v>
+      </c>
+      <c r="J152" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="K152">
+        <v>12129</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" t="s">
+        <v>43</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G153" t="s">
+        <v>44</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="K153">
+        <v>8006</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" t="s">
+        <v>43</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C154" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="K154">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" t="s">
+        <v>43</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G155" t="s">
+        <v>44</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I155">
+        <v>6</v>
+      </c>
+      <c r="J155" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="K155">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" t="s">
+        <v>43</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G156" t="s">
+        <v>44</v>
+      </c>
+      <c r="H156" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I156">
+        <v>5</v>
+      </c>
+      <c r="J156" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K156">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" t="s">
+        <v>43</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G157" t="s">
+        <v>44</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I157">
+        <v>4</v>
+      </c>
+      <c r="J157" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="K157">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" t="s">
+        <v>43</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G158" t="s">
+        <v>44</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I158">
+        <v>3</v>
+      </c>
+      <c r="J158" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="K158">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" t="s">
+        <v>43</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G159" t="s">
+        <v>44</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K159">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" t="s">
+        <v>43</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G160" t="s">
+        <v>44</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="K160">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" t="s">
+        <v>43</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C161" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G161" t="s">
+        <v>44</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I161">
+        <v>6</v>
+      </c>
+      <c r="J161" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="K161">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" t="s">
+        <v>43</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C162" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G162" t="s">
+        <v>44</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I162">
+        <v>5</v>
+      </c>
+      <c r="J162" s="9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" t="s">
+        <v>43</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G163" t="s">
+        <v>44</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I163">
+        <v>4</v>
+      </c>
+      <c r="J163" s="9">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" t="s">
+        <v>43</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C164" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G164" t="s">
+        <v>44</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I164">
+        <v>3</v>
+      </c>
+      <c r="J164" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" t="s">
+        <v>43</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G165" t="s">
+        <v>44</v>
+      </c>
+      <c r="H165" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165" s="9">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" t="s">
+        <v>43</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C166" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G166" t="s">
+        <v>44</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" t="s">
+        <v>43</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G167" t="s">
+        <v>44</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I167">
+        <v>6</v>
+      </c>
+      <c r="J167" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="K167">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" t="s">
+        <v>43</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G168" t="s">
+        <v>44</v>
+      </c>
+      <c r="H168" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I168">
+        <v>5</v>
+      </c>
+      <c r="J168" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="K168">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" t="s">
+        <v>43</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G169" t="s">
+        <v>44</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I169">
+        <v>4</v>
+      </c>
+      <c r="J169" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" t="s">
+        <v>43</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G170" t="s">
+        <v>44</v>
+      </c>
+      <c r="H170" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I170">
+        <v>3</v>
+      </c>
+      <c r="J170" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" t="s">
+        <v>43</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G171" t="s">
+        <v>44</v>
+      </c>
+      <c r="H171" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171" s="9">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" t="s">
+        <v>43</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G172" t="s">
+        <v>44</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" t="s">
+        <v>43</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C173" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G173" t="s">
+        <v>44</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I173">
+        <v>6</v>
+      </c>
+      <c r="J173" s="9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" t="s">
+        <v>43</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C174" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G174" t="s">
+        <v>44</v>
+      </c>
+      <c r="H174" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I174">
+        <v>5</v>
+      </c>
+      <c r="J174" s="9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" t="s">
+        <v>43</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G175" t="s">
+        <v>44</v>
+      </c>
+      <c r="H175" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I175">
+        <v>4</v>
+      </c>
+      <c r="J175" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" t="s">
+        <v>43</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G176" t="s">
+        <v>44</v>
+      </c>
+      <c r="H176" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I176">
+        <v>3</v>
+      </c>
+      <c r="J176" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" t="s">
+        <v>43</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C177" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G177" t="s">
+        <v>44</v>
+      </c>
+      <c r="H177" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177" s="9">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" t="s">
+        <v>43</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C178" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G178" t="s">
+        <v>44</v>
+      </c>
+      <c r="H178" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K131">
     <sortCondition ref="A2:A131"/>

--- a/data/ucues_alluc.xlsx
+++ b/data/ucues_alluc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanolan\OneDrive\IR_Folder\UCSD_Gaps_Quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07903D6-C48C-4ECC-87D6-88199EEB1A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A889B519-BD0B-48FE-80D2-30E7A603265C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19200" windowHeight="6280" xr2:uid="{27077269-9732-4CAA-AC77-88FD1CE5D0EE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{27077269-9732-4CAA-AC77-88FD1CE5D0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>Riverside</t>
   </si>
   <si>
-    <t>San Diego</t>
-  </si>
-  <si>
     <t>Santa Barbara</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>Strongly Disagree</t>
+  </si>
+  <si>
+    <t>UCSD</t>
   </si>
 </sst>
 </file>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C231E6-8F8A-44F7-8087-CF662AB14A00}">
   <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1182,81 +1182,75 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="10">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="K2">
-        <v>8073</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="10">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J3" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="K3">
-        <v>8960</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -1267,31 +1261,28 @@
         <v>12</v>
       </c>
       <c r="F4" s="10">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J4" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="K4">
-        <v>8330</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -1302,31 +1293,28 @@
         <v>12</v>
       </c>
       <c r="F5" s="10">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K5">
-        <v>7830</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -1337,31 +1325,28 @@
         <v>12</v>
       </c>
       <c r="F6" s="10">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" s="9">
-        <v>0.19</v>
-      </c>
-      <c r="K6">
-        <v>10289</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -1372,1566 +1357,1641 @@
         <v>12</v>
       </c>
       <c r="F7" s="10">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J7" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="K7">
-        <v>11043</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>2020</v>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="10">
+        <v>2016</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" s="9">
-        <v>0.65999999999999992</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>2020</v>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2016</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0.34</v>
+        <v>3</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>2022</v>
+      <c r="D10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2016</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10" s="9">
-        <v>0.57999999999999996</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>2022</v>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2016</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J11" s="9">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12">
-        <v>2022</v>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2016</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="8">
-        <v>0.24</v>
+      <c r="J12" s="9">
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <v>2020</v>
+      <c r="D13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2016</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="9">
-        <v>0.61</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14">
-        <v>2020</v>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2018</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0.39</v>
+        <v>5</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.18</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15">
-        <v>2022</v>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2018</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="9">
-        <v>0.56999999999999995</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16">
-        <v>2022</v>
+      <c r="D16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2018</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17">
-        <v>2022</v>
+      <c r="D17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="10">
+        <v>2018</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" s="9">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18">
-        <v>2020</v>
+      <c r="D18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="10">
+        <v>2018</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19">
-        <v>2020</v>
+      <c r="D19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="10">
+        <v>2018</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20">
-        <v>2022</v>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="10">
+        <v>2018</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="J20" s="9">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21">
-        <v>2022</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="J21" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
       <c r="B22" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22">
-        <v>2022</v>
+      <c r="D22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="10">
+        <v>2018</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" s="9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23">
-        <v>2020</v>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="10">
+        <v>2018</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J23" s="9">
-        <v>0.45999999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>0.06</v>
+      </c>
+      <c r="K23">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24">
-        <v>2020</v>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="10">
+        <v>2018</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24" s="8">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="J24" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25">
-        <v>2022</v>
+      <c r="D25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="10">
+        <v>2018</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" s="9">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26">
-        <v>2022</v>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="10">
+        <v>2020</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K26">
+        <v>13530</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="K27">
+        <v>8006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="I26">
+      <c r="B28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="K28">
+        <v>8174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30">
         <v>2</v>
       </c>
-      <c r="J26" s="9">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27">
-        <v>2022</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28">
+      <c r="J30" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="10">
         <v>2020</v>
       </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29">
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="10">
         <v>2020</v>
       </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" s="8">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30">
-        <v>2022</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30" s="9">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31">
-        <v>2022</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31" s="9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32">
-        <v>2022</v>
-      </c>
       <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32" s="9">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>21516</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33">
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="10">
         <v>2020</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" s="9">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>0.18</v>
+      </c>
+      <c r="K33">
+        <v>12129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34">
+      <c r="D34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="10">
         <v>2020</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K35">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36">
         <v>1</v>
       </c>
-      <c r="J34" s="8">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35">
-        <v>2022</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
-      <c r="J35" s="9">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36">
-        <v>2022</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="6" t="s">
+      <c r="J36" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="K36">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
         <v>32</v>
       </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-      <c r="J36" s="9">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
       <c r="B37" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37">
-        <v>2022</v>
+      <c r="D37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="10">
+        <v>2020</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" s="9">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38">
-        <v>2020</v>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="10">
+        <v>2022</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="K38">
+        <v>11128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39">
         <v>2</v>
       </c>
-      <c r="J38" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39">
-        <v>2020</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39" s="8">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="J39" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="K39">
+        <v>6183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40">
+      <c r="D40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="10">
         <v>2022</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K40">
+        <v>8073</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K41">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K42">
+        <v>8330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K43">
+        <v>7830</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="K44">
+        <v>10289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K45">
+        <v>11043</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K46">
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="K47">
+        <v>9507</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="K48">
+        <v>17608</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G49" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49">
         <v>3</v>
       </c>
-      <c r="J40" s="9">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41">
+      <c r="J49" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="K49">
+        <v>9939</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="10">
         <v>2022</v>
       </c>
-      <c r="G41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42">
-        <v>2022</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" s="9">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43">
-        <v>2020</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I43">
-        <v>2</v>
-      </c>
-      <c r="J43" s="9">
-        <v>0.58000000000000007</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44">
-        <v>2020</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" t="s">
-        <v>25</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44" s="8">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45">
-        <v>2022</v>
-      </c>
-      <c r="G45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
-      <c r="J45" s="9">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46">
-        <v>2022</v>
-      </c>
-      <c r="G46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
-      <c r="J46" s="9">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47">
-        <v>2022</v>
-      </c>
-      <c r="G47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47" s="9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48">
-        <v>2016</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I48">
-        <v>3</v>
-      </c>
-      <c r="J48" s="9">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49">
-        <v>2016</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" t="s">
-        <v>25</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49" s="9">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50">
-        <v>2018</v>
-      </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I50">
         <v>3</v>
       </c>
       <c r="J50" s="9">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K50">
+        <v>7522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51">
-        <v>2018</v>
+      <c r="D51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="10">
+        <v>2022</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="K51">
+        <v>9030</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G52" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="J52" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K52">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G53" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="K53">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
         <v>32</v>
       </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
-      <c r="J51" s="9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52">
-        <v>2018</v>
-      </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" s="8">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53">
-        <v>2020</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I53">
-        <v>2</v>
-      </c>
-      <c r="J53" s="9">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" t="s">
-        <v>10</v>
-      </c>
       <c r="B54" s="7" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54">
-        <v>2020</v>
+      <c r="D54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="10">
+        <v>2022</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54" s="8">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="J54" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K54">
+        <v>8779</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55">
+      <c r="D55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="10">
         <v>2022</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" s="9">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>0.22</v>
+      </c>
+      <c r="K55">
+        <v>11771</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>10</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
@@ -2943,27 +3003,27 @@
         <v>12</v>
       </c>
       <c r="F56">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G56" t="s">
         <v>13</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I56">
         <v>2</v>
       </c>
       <c r="J56" s="9">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>0.65999999999999992</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
@@ -2975,27 +3035,27 @@
         <v>12</v>
       </c>
       <c r="F57">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="H57" t="s">
+        <v>27</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
@@ -3010,24 +3070,24 @@
         <v>2020</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
       </c>
       <c r="I58">
         <v>2</v>
       </c>
       <c r="J58" s="9">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>10</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -3045,21 +3105,21 @@
         <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" s="8">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>10</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -3077,21 +3137,21 @@
         <v>13</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I60">
         <v>3</v>
       </c>
       <c r="J60" s="9">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>10</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -3109,21 +3169,21 @@
         <v>13</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I61">
         <v>2</v>
       </c>
       <c r="J61" s="9">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>10</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -3141,21 +3201,21 @@
         <v>13</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62" s="9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="J62" s="8">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -3170,24 +3230,24 @@
         <v>2020</v>
       </c>
       <c r="G63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="J63" s="9">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -3202,21 +3262,21 @@
         <v>2020</v>
       </c>
       <c r="G64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" t="s">
         <v>27</v>
       </c>
-      <c r="H64" t="s">
-        <v>29</v>
-      </c>
       <c r="I64">
-        <v>2</v>
-      </c>
-      <c r="J64" s="9">
-        <v>0.95</v>
+        <v>1</v>
+      </c>
+      <c r="J64" s="8">
+        <v>0.06</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>17</v>
@@ -3234,21 +3294,21 @@
         <v>2020</v>
       </c>
       <c r="G65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H65" t="s">
         <v>28</v>
       </c>
       <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65" s="8">
-        <v>0.06</v>
+        <v>2</v>
+      </c>
+      <c r="J65" s="9">
+        <v>0.94</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>17</v>
@@ -3266,24 +3326,24 @@
         <v>2020</v>
       </c>
       <c r="G66" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I66">
-        <v>2</v>
-      </c>
-      <c r="J66" s="9">
-        <v>0.94</v>
+        <v>1</v>
+      </c>
+      <c r="J66" s="8">
+        <v>0.39</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
@@ -3295,27 +3355,27 @@
         <v>12</v>
       </c>
       <c r="F67">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G67" t="s">
-        <v>27</v>
-      </c>
-      <c r="H67" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67" s="8">
-        <v>0.06</v>
+        <v>3</v>
+      </c>
+      <c r="J67" s="9">
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
@@ -3327,27 +3387,27 @@
         <v>12</v>
       </c>
       <c r="F68">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G68" t="s">
-        <v>27</v>
-      </c>
-      <c r="H68" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I68">
         <v>2</v>
       </c>
       <c r="J68" s="9">
-        <v>0.94</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
@@ -3359,27 +3419,27 @@
         <v>12</v>
       </c>
       <c r="F69">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G69" t="s">
-        <v>27</v>
-      </c>
-      <c r="H69" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69" s="8">
-        <v>7.0000000000000007E-2</v>
+      <c r="J69" s="9">
+        <v>0.24</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
@@ -3394,24 +3454,24 @@
         <v>2020</v>
       </c>
       <c r="G70" t="s">
-        <v>27</v>
-      </c>
-      <c r="H70" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="I70">
         <v>2</v>
       </c>
       <c r="J70" s="9">
-        <v>0.92999999999999994</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -3426,10 +3486,10 @@
         <v>2020</v>
       </c>
       <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" t="s">
         <v>27</v>
-      </c>
-      <c r="H71" t="s">
-        <v>28</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -3440,10 +3500,10 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -3458,10 +3518,10 @@
         <v>2020</v>
       </c>
       <c r="G72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -3472,10 +3532,10 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -3490,24 +3550,24 @@
         <v>2020</v>
       </c>
       <c r="G73" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" s="8">
-        <v>0.06</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
@@ -3519,27 +3579,27 @@
         <v>12</v>
       </c>
       <c r="F74">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G74" t="s">
-        <v>27</v>
-      </c>
-      <c r="H74" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" s="9">
-        <v>0.94</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
@@ -3551,27 +3611,27 @@
         <v>12</v>
       </c>
       <c r="F75">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G75" t="s">
-        <v>27</v>
-      </c>
-      <c r="H75" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>2</v>
+      </c>
+      <c r="J75" s="9">
+        <v>0.17</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -3583,27 +3643,27 @@
         <v>12</v>
       </c>
       <c r="F76">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G76" t="s">
-        <v>27</v>
-      </c>
-      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" s="9">
-        <v>0.92999999999999994</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
@@ -3618,24 +3678,24 @@
         <v>2020</v>
       </c>
       <c r="G77" t="s">
-        <v>27</v>
-      </c>
-      <c r="H77" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77" s="8">
-        <v>0.08</v>
+        <v>2</v>
+      </c>
+      <c r="J77" s="9">
+        <v>0.45999999999999996</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
@@ -3650,24 +3710,24 @@
         <v>2020</v>
       </c>
       <c r="G78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" t="s">
         <v>27</v>
       </c>
-      <c r="H78" t="s">
-        <v>29</v>
-      </c>
       <c r="I78">
-        <v>2</v>
-      </c>
-      <c r="J78" s="9">
-        <v>0.92</v>
+        <v>1</v>
+      </c>
+      <c r="J78" s="8">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
         <v>11</v>
@@ -3682,24 +3742,24 @@
         <v>2020</v>
       </c>
       <c r="G79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H79" t="s">
         <v>28</v>
       </c>
       <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="J79" s="8">
-        <v>0.06</v>
+        <v>2</v>
+      </c>
+      <c r="J79" s="9">
+        <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
@@ -3714,24 +3774,24 @@
         <v>2020</v>
       </c>
       <c r="G80" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I80">
-        <v>2</v>
-      </c>
-      <c r="J80" s="9">
-        <v>0.94</v>
+        <v>1</v>
+      </c>
+      <c r="J80" s="8">
+        <v>0.54</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
@@ -3743,27 +3803,27 @@
         <v>12</v>
       </c>
       <c r="F81">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G81" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81" s="8">
-        <v>0.06</v>
+        <v>3</v>
+      </c>
+      <c r="J81" s="9">
+        <v>0.44</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -3775,336 +3835,339 @@
         <v>12</v>
       </c>
       <c r="F82">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G82" t="s">
-        <v>27</v>
-      </c>
-      <c r="H82" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82" s="9">
-        <v>0.94</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="10">
-        <v>2016</v>
+      <c r="D83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83">
+        <v>2022</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="I83">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J83" s="9">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="10">
-        <v>2016</v>
+      <c r="D84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84">
+        <v>2020</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J84" s="9">
-        <v>0.2</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="10">
-        <v>2016</v>
+      <c r="D85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85">
+        <v>2020</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="H85" t="s">
+        <v>27</v>
       </c>
       <c r="I85">
-        <v>2</v>
-      </c>
-      <c r="J85" s="9">
-        <v>0.17</v>
+        <v>1</v>
+      </c>
+      <c r="J85" s="8">
+        <v>0.06</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="10">
-        <v>2016</v>
+      <c r="D86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86">
+        <v>2020</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="H86" t="s">
+        <v>28</v>
       </c>
       <c r="I86">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J86" s="9">
-        <v>0.12</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C87" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="10">
-        <v>2016</v>
+      <c r="D87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87">
+        <v>2020</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>24</v>
       </c>
       <c r="I87">
-        <v>3</v>
-      </c>
-      <c r="J87" s="9">
-        <v>0.15</v>
+        <v>1</v>
+      </c>
+      <c r="J87" s="8">
+        <v>0.45</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="10">
-        <v>2016</v>
+      <c r="D88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88">
+        <v>2022</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" s="9">
-        <v>0.26</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="10">
-        <v>2018</v>
+      <c r="D89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89">
+        <v>2022</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I89">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J89" s="9">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="10">
-        <v>2018</v>
+      <c r="D90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90">
+        <v>2022</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J90" s="9">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="10" t="s">
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="10">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J91" s="9">
-        <v>0.15</v>
+        <v>0.18</v>
+      </c>
+      <c r="K91">
+        <v>1175</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" s="10" t="s">
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="10">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J92" s="9">
         <v>0.13</v>
@@ -4112,703 +4175,703 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G93" t="s">
         <v>33</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="10">
-        <v>2018</v>
-      </c>
-      <c r="G93" t="s">
-        <v>34</v>
-      </c>
       <c r="H93" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J93" s="9">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G94" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C94" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="10">
-        <v>2018</v>
-      </c>
-      <c r="G94" t="s">
-        <v>34</v>
-      </c>
       <c r="H94" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J94" s="9">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G95" t="s">
         <v>33</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="10">
-        <v>2020</v>
-      </c>
-      <c r="G95" t="s">
-        <v>34</v>
-      </c>
       <c r="H95" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J95" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="K95">
-        <v>8174</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G96" t="s">
         <v>33</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C96" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="10">
-        <v>2020</v>
-      </c>
-      <c r="G96" t="s">
-        <v>34</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J96" s="9">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" s="10" t="s">
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="10">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J97" s="9">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C98" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="10" t="s">
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="10">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J98" s="9">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G99" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C99" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="10">
-        <v>2020</v>
-      </c>
-      <c r="G99" t="s">
-        <v>34</v>
-      </c>
       <c r="H99" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I99">
         <v>3</v>
       </c>
       <c r="J99" s="9">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C100" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="10" t="s">
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="10">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J100" s="9">
-        <v>0.26</v>
+        <v>0.06</v>
+      </c>
+      <c r="K100">
+        <v>422</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="10" t="s">
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="10">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I101">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J101" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K101">
-        <v>7770</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G102" t="s">
         <v>33</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="10">
-        <v>2022</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="H102" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H102" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="I102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J102" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="K102">
-        <v>9507</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="10" t="s">
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="10">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J103" s="9">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="K103">
-        <v>7522</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C104" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="10" t="s">
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="10">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J104" s="9">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K104">
-        <v>9030</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G105" t="s">
         <v>33</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C105" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="10">
-        <v>2022</v>
-      </c>
-      <c r="G105" t="s">
-        <v>34</v>
-      </c>
       <c r="H105" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J105" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="K105">
-        <v>8779</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G106" t="s">
         <v>33</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C106" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="10">
-        <v>2022</v>
-      </c>
-      <c r="G106" t="s">
-        <v>34</v>
-      </c>
       <c r="H106" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J106" s="9">
-        <v>0.22</v>
-      </c>
-      <c r="K106">
-        <v>11771</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G107" t="s">
         <v>33</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="10">
-        <v>2016</v>
-      </c>
-      <c r="G107" t="s">
-        <v>34</v>
-      </c>
       <c r="H107" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I107">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J107" s="9">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G108" t="s">
         <v>33</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C108" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="10">
-        <v>2016</v>
-      </c>
-      <c r="G108" t="s">
-        <v>34</v>
-      </c>
       <c r="H108" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J108" s="9">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
       </c>
-      <c r="D109" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="10" t="s">
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="10">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I109">
         <v>4</v>
       </c>
       <c r="J109" s="9">
-        <v>0.21</v>
+        <v>0.31</v>
+      </c>
+      <c r="K109">
+        <v>2477</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C110" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="10" t="s">
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="10">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J110" s="9">
-        <v>0.15</v>
+        <v>0.22</v>
+      </c>
+      <c r="K110">
+        <v>1743</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G111" t="s">
         <v>33</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C111" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="10">
-        <v>2016</v>
-      </c>
-      <c r="G111" t="s">
-        <v>34</v>
-      </c>
       <c r="H111" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J111" s="9">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
       </c>
-      <c r="D112" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" s="10" t="s">
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="10">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J112" s="9">
-        <v>0.17</v>
+        <v>0.06</v>
+      </c>
+      <c r="K112">
+        <v>466</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" s="10" t="s">
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="10">
         <v>2018</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J113" s="9">
-        <v>0.13</v>
+        <v>0.11</v>
+      </c>
+      <c r="K113">
+        <v>839</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
@@ -4823,10 +4886,10 @@
         <v>2018</v>
       </c>
       <c r="G114" t="s">
+        <v>33</v>
+      </c>
+      <c r="H114" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -4837,202 +4900,208 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C115" t="s">
         <v>11</v>
       </c>
-      <c r="D115" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="10" t="s">
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J115" s="9">
-        <v>0.19</v>
+        <v>0.17</v>
+      </c>
+      <c r="K115">
+        <v>1526</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" s="10" t="s">
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116" s="9">
-        <v>0.16</v>
+        <v>0.15</v>
+      </c>
+      <c r="K116">
+        <v>1288</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C117" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" s="10">
-        <v>2018</v>
+      <c r="D117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117">
+        <v>2020</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I117">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J117" s="9">
-        <v>0.14000000000000001</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C118" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="10">
-        <v>2018</v>
+      <c r="D118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118">
+        <v>2020</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="H118" t="s">
+        <v>27</v>
       </c>
       <c r="I118">
-        <v>3</v>
-      </c>
-      <c r="J118" s="9">
-        <v>0.15</v>
+        <v>1</v>
+      </c>
+      <c r="J118" s="8">
+        <v>0.06</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="10">
+      <c r="D119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119">
         <v>2020</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="H119" t="s">
+        <v>28</v>
       </c>
       <c r="I119">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J119" s="9">
-        <v>0.12</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="10">
+      <c r="D120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120">
         <v>2020</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="H120" t="s">
+        <v>24</v>
       </c>
       <c r="I120">
-        <v>4</v>
-      </c>
-      <c r="J120" s="9">
-        <v>0.18</v>
+        <v>1</v>
+      </c>
+      <c r="J120" s="8">
+        <v>0.38</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C121" t="s">
         <v>11</v>
@@ -5047,24 +5116,24 @@
         <v>2020</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J121" s="9">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C122" t="s">
         <v>11</v>
@@ -5079,24 +5148,24 @@
         <v>2020</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I122">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J122" s="9">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C123" t="s">
         <v>11</v>
@@ -5111,24 +5180,24 @@
         <v>2020</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J123" s="9">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
@@ -5143,234 +5212,228 @@
         <v>2020</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J124" s="9">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C125" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" s="10" t="s">
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="10">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I125">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J125" s="9">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
       <c r="K125">
-        <v>1544</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C126" t="s">
         <v>11</v>
       </c>
-      <c r="D126" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" s="10" t="s">
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="10">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J126" s="9">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="K126">
-        <v>1891</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" t="s">
+        <v>32</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G127" t="s">
         <v>33</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C127" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="10">
-        <v>2022</v>
-      </c>
-      <c r="G127" t="s">
-        <v>34</v>
       </c>
       <c r="H127" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J127" s="9">
-        <v>0.13</v>
-      </c>
-      <c r="K127">
-        <v>1141</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128" s="10" t="s">
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="10">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G128" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I128">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J128" s="9">
-        <v>0.17</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K128">
-        <v>1480</v>
+        <v>627</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
       </c>
-      <c r="D129" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" s="10" t="s">
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="10">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" s="9">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="K129">
-        <v>1181</v>
+        <v>890</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" t="s">
+        <v>32</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G130" t="s">
         <v>33</v>
       </c>
-      <c r="B130" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C130" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130" s="10">
-        <v>2022</v>
-      </c>
-      <c r="G130" t="s">
+      <c r="H130" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="K130">
-        <v>1280</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
@@ -5385,27 +5448,27 @@
         <v>2022</v>
       </c>
       <c r="G131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>45</v>
       </c>
       <c r="I131">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J131" s="9">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="K131">
-        <v>688</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C132" t="s">
         <v>11</v>
@@ -5420,237 +5483,231 @@
         <v>2022</v>
       </c>
       <c r="G132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I132">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J132" s="9">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="K132">
-        <v>1614</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C133" t="s">
         <v>11</v>
       </c>
-      <c r="D133" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" s="10">
+      <c r="D133" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133">
         <v>2022</v>
       </c>
       <c r="G133" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J133" s="9">
-        <v>0.31</v>
-      </c>
-      <c r="K133">
-        <v>2672</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C134" t="s">
         <v>11</v>
       </c>
-      <c r="D134" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="10">
+      <c r="D134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134">
         <v>2022</v>
       </c>
       <c r="G134" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J134" s="9">
-        <v>0.19</v>
-      </c>
-      <c r="K134">
-        <v>1621</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C135" t="s">
         <v>11</v>
       </c>
-      <c r="D135" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="D135" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="10">
         <v>2022</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J135" s="9">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="K135">
-        <v>1062</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C136" t="s">
         <v>11</v>
       </c>
-      <c r="D136" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="D136" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="10">
         <v>2022</v>
       </c>
       <c r="G136" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J136" s="9">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="K136">
-        <v>828</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C137" t="s">
         <v>11</v>
       </c>
-      <c r="D137" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="D137" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F137" s="10">
         <v>2022</v>
       </c>
       <c r="G137" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I137">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J137" s="9">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="K137">
-        <v>4412</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C138" t="s">
         <v>11</v>
       </c>
-      <c r="D138" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="D138" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F138" s="10">
         <v>2022</v>
       </c>
       <c r="G138" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I138">
         <v>5</v>
       </c>
       <c r="J138" s="9">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="K138">
-        <v>11128</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C139" t="s">
         <v>11</v>
@@ -5665,27 +5722,27 @@
         <v>2022</v>
       </c>
       <c r="G139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I139">
         <v>4</v>
       </c>
       <c r="J139" s="9">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="K139">
-        <v>17608</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
@@ -5700,62 +5757,62 @@
         <v>2022</v>
       </c>
       <c r="G140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I140">
         <v>3</v>
       </c>
       <c r="J140" s="9">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="K140">
-        <v>9939</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C141" t="s">
         <v>11</v>
       </c>
-      <c r="D141" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="D141" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F141" s="10">
         <v>2022</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J141" s="9">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K141">
-        <v>6183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C142" t="s">
         <v>11</v>
@@ -5770,129 +5827,126 @@
         <v>2022</v>
       </c>
       <c r="G142" t="s">
+        <v>43</v>
+      </c>
+      <c r="H142" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H142" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="I142">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J142" s="9">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="K142">
-        <v>4919</v>
+        <v>688</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
+        <v>42</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G143" t="s">
         <v>43</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C143" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s">
-        <v>12</v>
-      </c>
-      <c r="E143" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" s="10">
-        <v>2020</v>
-      </c>
-      <c r="G143" t="s">
-        <v>44</v>
-      </c>
       <c r="H143" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I143">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J143" s="9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="K143">
-        <v>627</v>
+        <v>828</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C144" t="s">
         <v>11</v>
       </c>
-      <c r="D144" t="s">
-        <v>12</v>
-      </c>
-      <c r="E144" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" s="10">
-        <v>2020</v>
+      <c r="D144" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144">
+        <v>2022</v>
       </c>
       <c r="G144" t="s">
-        <v>44</v>
-      </c>
-      <c r="H144" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="I144">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J144" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="K144">
-        <v>1526</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C145" t="s">
         <v>11</v>
       </c>
-      <c r="D145" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="D145" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="10">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J145" s="9">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="K145">
-        <v>2705</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>22</v>
@@ -5900,34 +5954,31 @@
       <c r="C146" t="s">
         <v>11</v>
       </c>
-      <c r="D146" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146" t="s">
-        <v>12</v>
-      </c>
-      <c r="F146" s="10">
+      <c r="D146" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146">
         <v>2020</v>
       </c>
       <c r="G146" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J146" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="K146">
-        <v>1798</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>22</v>
@@ -5935,34 +5986,31 @@
       <c r="C147" t="s">
         <v>11</v>
       </c>
-      <c r="D147" t="s">
-        <v>12</v>
-      </c>
-      <c r="E147" t="s">
-        <v>12</v>
-      </c>
-      <c r="F147" s="10">
+      <c r="D147" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147">
         <v>2020</v>
       </c>
       <c r="G147" t="s">
-        <v>44</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="H147" t="s">
+        <v>27</v>
       </c>
       <c r="I147">
-        <v>2</v>
-      </c>
-      <c r="J147" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="K147">
-        <v>1288</v>
+        <v>1</v>
+      </c>
+      <c r="J147" s="8">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>22</v>
@@ -5970,1042 +6018,993 @@
       <c r="C148" t="s">
         <v>11</v>
       </c>
-      <c r="D148" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148" t="s">
-        <v>12</v>
-      </c>
-      <c r="F148" s="10">
+      <c r="D148" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148">
         <v>2020</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
-      </c>
-      <c r="H148" s="6" t="s">
-        <v>50</v>
+        <v>26</v>
+      </c>
+      <c r="H148" t="s">
+        <v>28</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K148">
-        <v>890</v>
+        <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C149" t="s">
         <v>11</v>
       </c>
-      <c r="D149" t="s">
-        <v>12</v>
-      </c>
-      <c r="E149" t="s">
-        <v>12</v>
-      </c>
-      <c r="F149" s="10">
+      <c r="D149" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149">
         <v>2020</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="H149" t="s">
+        <v>24</v>
       </c>
       <c r="I149">
-        <v>6</v>
-      </c>
-      <c r="J149" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="K149">
-        <v>5371</v>
+        <v>1</v>
+      </c>
+      <c r="J149" s="8">
+        <v>0.4</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C150" t="s">
         <v>11</v>
       </c>
-      <c r="D150" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" t="s">
-        <v>12</v>
-      </c>
-      <c r="F150" s="10">
-        <v>2020</v>
+      <c r="D150" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150">
+        <v>2022</v>
       </c>
       <c r="G150" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I150">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J150" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="K150">
-        <v>13530</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C151" t="s">
         <v>11</v>
       </c>
-      <c r="D151" t="s">
-        <v>12</v>
-      </c>
-      <c r="E151" t="s">
-        <v>12</v>
-      </c>
-      <c r="F151" s="10">
-        <v>2020</v>
+      <c r="D151" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151">
+        <v>2022</v>
       </c>
       <c r="G151" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J151" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="K151">
-        <v>21516</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C152" t="s">
         <v>11</v>
       </c>
-      <c r="D152" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" t="s">
-        <v>12</v>
-      </c>
-      <c r="F152" s="10">
-        <v>2020</v>
+      <c r="D152" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152">
+        <v>2022</v>
       </c>
       <c r="G152" t="s">
-        <v>44</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J152" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="K152">
-        <v>12129</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C153" t="s">
         <v>11</v>
       </c>
-      <c r="D153" t="s">
-        <v>12</v>
-      </c>
-      <c r="E153" t="s">
-        <v>12</v>
-      </c>
-      <c r="F153" s="10">
+      <c r="D153" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153">
         <v>2020</v>
       </c>
       <c r="G153" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I153">
         <v>2</v>
       </c>
       <c r="J153" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="K153">
-        <v>8006</v>
+        <v>0.58000000000000007</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C154" t="s">
         <v>11</v>
       </c>
-      <c r="D154" t="s">
-        <v>12</v>
-      </c>
-      <c r="E154" t="s">
-        <v>12</v>
-      </c>
-      <c r="F154" s="10">
+      <c r="D154" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154">
         <v>2020</v>
       </c>
       <c r="G154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H154" s="6" t="s">
-        <v>50</v>
+        <v>26</v>
+      </c>
+      <c r="H154" t="s">
+        <v>27</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
-      <c r="J154" s="9">
-        <v>0.09</v>
-      </c>
-      <c r="K154">
-        <v>5970</v>
+      <c r="J154" s="8">
+        <v>0.08</v>
       </c>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C155" t="s">
         <v>11</v>
       </c>
-      <c r="D155" t="s">
-        <v>12</v>
-      </c>
-      <c r="E155" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155" s="10">
-        <v>2018</v>
+      <c r="D155" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155">
+        <v>2020</v>
       </c>
       <c r="G155" t="s">
-        <v>44</v>
-      </c>
-      <c r="H155" s="6" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="H155" t="s">
+        <v>28</v>
       </c>
       <c r="I155">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J155" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="K155">
-        <v>466</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C156" t="s">
         <v>11</v>
       </c>
-      <c r="D156" t="s">
-        <v>12</v>
-      </c>
-      <c r="E156" t="s">
-        <v>12</v>
-      </c>
-      <c r="F156" s="10">
-        <v>2018</v>
+      <c r="D156" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156">
+        <v>2020</v>
       </c>
       <c r="G156" t="s">
-        <v>44</v>
-      </c>
-      <c r="H156" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="H156" t="s">
+        <v>24</v>
       </c>
       <c r="I156">
-        <v>5</v>
-      </c>
-      <c r="J156" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="K156">
-        <v>1281</v>
+        <v>1</v>
+      </c>
+      <c r="J156" s="8">
+        <v>0.42</v>
       </c>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C157" t="s">
         <v>11</v>
       </c>
-      <c r="D157" t="s">
-        <v>12</v>
-      </c>
-      <c r="E157" t="s">
-        <v>12</v>
-      </c>
-      <c r="F157" s="10">
-        <v>2018</v>
+      <c r="D157" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157">
+        <v>2022</v>
       </c>
       <c r="G157" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I157">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J157" s="9">
-        <v>0.31</v>
-      </c>
-      <c r="K157">
-        <v>2477</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C158" t="s">
         <v>11</v>
       </c>
-      <c r="D158" t="s">
-        <v>12</v>
-      </c>
-      <c r="E158" t="s">
-        <v>12</v>
-      </c>
-      <c r="F158" s="10">
-        <v>2018</v>
+      <c r="D158" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158">
+        <v>2022</v>
       </c>
       <c r="G158" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J158" s="9">
-        <v>0.22</v>
-      </c>
-      <c r="K158">
-        <v>1743</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C159" t="s">
         <v>11</v>
       </c>
-      <c r="D159" t="s">
-        <v>12</v>
-      </c>
-      <c r="E159" t="s">
-        <v>12</v>
-      </c>
-      <c r="F159" s="10">
-        <v>2018</v>
+      <c r="D159" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159">
+        <v>2022</v>
       </c>
       <c r="G159" t="s">
-        <v>44</v>
-      </c>
-      <c r="H159" s="6" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K159">
-        <v>1099</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C160" t="s">
         <v>11</v>
       </c>
-      <c r="D160" t="s">
-        <v>12</v>
-      </c>
-      <c r="E160" t="s">
-        <v>12</v>
-      </c>
-      <c r="F160" s="10">
+      <c r="D160" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160">
+        <v>2016</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I160">
+        <v>3</v>
+      </c>
+      <c r="J160" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161">
+        <v>2016</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
+      <c r="H161" t="s">
+        <v>24</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" s="9">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162">
         <v>2018</v>
       </c>
-      <c r="G160" t="s">
-        <v>44</v>
-      </c>
-      <c r="H160" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I160">
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I162">
+        <v>3</v>
+      </c>
+      <c r="J162" s="9">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163">
+        <v>2018</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164">
+        <v>2018</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I164">
         <v>1</v>
       </c>
-      <c r="J160" s="9">
-        <v>0.11</v>
-      </c>
-      <c r="K160">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161" t="s">
-        <v>43</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C161" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s">
-        <v>12</v>
-      </c>
-      <c r="E161" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161" s="10">
-        <v>2018</v>
-      </c>
-      <c r="G161" t="s">
-        <v>44</v>
-      </c>
-      <c r="H161" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I161">
-        <v>6</v>
-      </c>
-      <c r="J161" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="K161">
-        <v>3744</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162" t="s">
-        <v>43</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C162" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s">
-        <v>12</v>
-      </c>
-      <c r="E162" t="s">
-        <v>12</v>
-      </c>
-      <c r="F162" s="10">
-        <v>2018</v>
-      </c>
-      <c r="G162" t="s">
-        <v>44</v>
-      </c>
-      <c r="H162" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I162">
-        <v>5</v>
-      </c>
-      <c r="J162" s="9">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163" t="s">
-        <v>43</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C163" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s">
-        <v>12</v>
-      </c>
-      <c r="E163" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163" s="10">
-        <v>2018</v>
-      </c>
-      <c r="G163" t="s">
-        <v>44</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I163">
-        <v>4</v>
-      </c>
-      <c r="J163" s="9">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164" t="s">
-        <v>43</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C164" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s">
-        <v>12</v>
-      </c>
-      <c r="E164" t="s">
-        <v>12</v>
-      </c>
-      <c r="F164" s="10">
-        <v>2018</v>
-      </c>
-      <c r="G164" t="s">
-        <v>44</v>
-      </c>
-      <c r="H164" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I164">
-        <v>3</v>
-      </c>
-      <c r="J164" s="9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="J164" s="8">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C165" t="s">
         <v>11</v>
       </c>
-      <c r="D165" t="s">
-        <v>12</v>
-      </c>
-      <c r="E165" t="s">
-        <v>12</v>
-      </c>
-      <c r="F165" s="10">
-        <v>2018</v>
+      <c r="D165" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165">
+        <v>2020</v>
       </c>
       <c r="G165" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I165">
         <v>2</v>
       </c>
       <c r="J165" s="9">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C166" t="s">
         <v>11</v>
       </c>
-      <c r="D166" t="s">
-        <v>12</v>
-      </c>
-      <c r="E166" t="s">
-        <v>12</v>
-      </c>
-      <c r="F166" s="10">
-        <v>2018</v>
+      <c r="D166" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166">
+        <v>2020</v>
       </c>
       <c r="G166" t="s">
-        <v>44</v>
-      </c>
-      <c r="H166" s="6" t="s">
-        <v>50</v>
+        <v>26</v>
+      </c>
+      <c r="H166" t="s">
+        <v>27</v>
       </c>
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="J166" s="9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="J166" s="8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C167" t="s">
         <v>11</v>
       </c>
-      <c r="D167" t="s">
-        <v>12</v>
-      </c>
-      <c r="E167" t="s">
-        <v>12</v>
-      </c>
-      <c r="F167" s="10">
-        <v>2016</v>
+      <c r="D167" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167">
+        <v>2020</v>
       </c>
       <c r="G167" t="s">
-        <v>44</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="H167" t="s">
+        <v>28</v>
       </c>
       <c r="I167">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J167" s="9">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168">
+        <v>2020</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" t="s">
+        <v>24</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168" s="8">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169">
+        <v>2022</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I169">
+        <v>3</v>
+      </c>
+      <c r="J169" s="9">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170">
+        <v>2022</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I170">
+        <v>2</v>
+      </c>
+      <c r="J170" s="9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171">
+        <v>2022</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172">
+        <v>2020</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I172">
+        <v>2</v>
+      </c>
+      <c r="J172" s="9">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" t="s">
+        <v>25</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173">
+        <v>2020</v>
+      </c>
+      <c r="G173" t="s">
+        <v>26</v>
+      </c>
+      <c r="H173" t="s">
+        <v>27</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173" s="8">
         <v>0.06</v>
       </c>
-      <c r="K167">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168" t="s">
-        <v>43</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C168" t="s">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s">
-        <v>12</v>
-      </c>
-      <c r="E168" t="s">
-        <v>12</v>
-      </c>
-      <c r="F168" s="10">
-        <v>2016</v>
-      </c>
-      <c r="G168" t="s">
-        <v>44</v>
-      </c>
-      <c r="H168" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I168">
-        <v>5</v>
-      </c>
-      <c r="J168" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="K168">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169" t="s">
-        <v>43</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C169" t="s">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s">
-        <v>12</v>
-      </c>
-      <c r="E169" t="s">
-        <v>12</v>
-      </c>
-      <c r="F169" s="10">
-        <v>2016</v>
-      </c>
-      <c r="G169" t="s">
-        <v>44</v>
-      </c>
-      <c r="H169" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I169">
-        <v>4</v>
-      </c>
-      <c r="J169" s="9">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170" t="s">
-        <v>43</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C170" t="s">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s">
-        <v>12</v>
-      </c>
-      <c r="E170" t="s">
-        <v>12</v>
-      </c>
-      <c r="F170" s="10">
-        <v>2016</v>
-      </c>
-      <c r="G170" t="s">
-        <v>44</v>
-      </c>
-      <c r="H170" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I170">
-        <v>3</v>
-      </c>
-      <c r="J170" s="9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171" t="s">
-        <v>43</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C171" t="s">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s">
-        <v>12</v>
-      </c>
-      <c r="E171" t="s">
-        <v>12</v>
-      </c>
-      <c r="F171" s="10">
-        <v>2016</v>
-      </c>
-      <c r="G171" t="s">
-        <v>44</v>
-      </c>
-      <c r="H171" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I171">
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" t="s">
+        <v>25</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174">
+        <v>2020</v>
+      </c>
+      <c r="G174" t="s">
+        <v>26</v>
+      </c>
+      <c r="H174" t="s">
+        <v>28</v>
+      </c>
+      <c r="I174">
         <v>2</v>
       </c>
-      <c r="J171" s="9">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172" t="s">
-        <v>43</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C172" t="s">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s">
-        <v>12</v>
-      </c>
-      <c r="E172" t="s">
-        <v>12</v>
-      </c>
-      <c r="F172" s="10">
-        <v>2016</v>
-      </c>
-      <c r="G172" t="s">
-        <v>44</v>
-      </c>
-      <c r="H172" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I172">
+      <c r="J174" s="9">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175">
+        <v>2020</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
+      <c r="H175" t="s">
+        <v>24</v>
+      </c>
+      <c r="I175">
         <v>1</v>
       </c>
-      <c r="J172" s="9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173" t="s">
-        <v>43</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C173" t="s">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s">
-        <v>12</v>
-      </c>
-      <c r="E173" t="s">
-        <v>12</v>
-      </c>
-      <c r="F173" s="10">
-        <v>2016</v>
-      </c>
-      <c r="G173" t="s">
-        <v>44</v>
-      </c>
-      <c r="H173" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I173">
-        <v>6</v>
-      </c>
-      <c r="J173" s="9">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174" t="s">
-        <v>43</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C174" t="s">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s">
-        <v>12</v>
-      </c>
-      <c r="E174" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174" s="10">
-        <v>2016</v>
-      </c>
-      <c r="G174" t="s">
-        <v>44</v>
-      </c>
-      <c r="H174" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I174">
-        <v>5</v>
-      </c>
-      <c r="J174" s="9">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175" t="s">
-        <v>43</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C175" t="s">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s">
-        <v>12</v>
-      </c>
-      <c r="E175" t="s">
-        <v>12</v>
-      </c>
-      <c r="F175" s="10">
-        <v>2016</v>
-      </c>
-      <c r="G175" t="s">
-        <v>44</v>
-      </c>
-      <c r="H175" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I175">
-        <v>4</v>
-      </c>
-      <c r="J175" s="9">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
+      <c r="J175" s="8">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C176" t="s">
         <v>11</v>
       </c>
-      <c r="D176" t="s">
-        <v>12</v>
-      </c>
-      <c r="E176" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176" s="10">
-        <v>2016</v>
+      <c r="D176" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176">
+        <v>2022</v>
       </c>
       <c r="G176" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I176">
         <v>3</v>
       </c>
       <c r="J176" s="9">
-        <v>0.2</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C177" t="s">
         <v>11</v>
       </c>
-      <c r="D177" t="s">
-        <v>12</v>
-      </c>
-      <c r="E177" t="s">
-        <v>12</v>
-      </c>
-      <c r="F177" s="10">
-        <v>2016</v>
+      <c r="D177" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177">
+        <v>2022</v>
       </c>
       <c r="G177" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" s="9">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C178" t="s">
         <v>11</v>
       </c>
-      <c r="D178" t="s">
-        <v>12</v>
-      </c>
-      <c r="E178" t="s">
-        <v>12</v>
-      </c>
-      <c r="F178" s="10">
-        <v>2016</v>
+      <c r="D178" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178">
+        <v>2022</v>
       </c>
       <c r="G178" t="s">
-        <v>44</v>
-      </c>
-      <c r="H178" s="6" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K131">
-    <sortCondition ref="A2:A131"/>
-    <sortCondition ref="B2:B131"/>
-    <sortCondition ref="F2:F131"/>
-    <sortCondition ref="H2:H131"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K178">
+    <sortCondition ref="B2:B178"/>
+    <sortCondition ref="F2:F178"/>
+    <sortCondition ref="H2:H178"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/data/ucues_alluc.xlsx
+++ b/data/ucues_alluc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanolan\OneDrive\IR_Folder\UCSD_Gaps_Quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBFCA34-5067-4EC8-BE1E-CFD1E6A00760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFDD1CB-0861-4FE7-9B68-0562BE7E4FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18729" yWindow="4131" windowWidth="14400" windowHeight="11109" xr2:uid="{27077269-9732-4CAA-AC77-88FD1CE5D0EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{27077269-9732-4CAA-AC77-88FD1CE5D0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="64">
   <si>
     <t>q</t>
   </si>
@@ -192,6 +192,45 @@
   </si>
   <si>
     <t>UCSD</t>
+  </si>
+  <si>
+    <t>Overall academic experience</t>
+  </si>
+  <si>
+    <t>Inclusive Instruction and Engagement</t>
+  </si>
+  <si>
+    <t>satisfied</t>
+  </si>
+  <si>
+    <t>Dissatisfied</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>Somewhat Dissatisfied</t>
+  </si>
+  <si>
+    <t>Somewhat Satisfied</t>
+  </si>
+  <si>
+    <t>Very Dissatisfied</t>
+  </si>
+  <si>
+    <t>Very Satisfied</t>
+  </si>
+  <si>
+    <t>Value of your education for the price you are paying</t>
+  </si>
+  <si>
+    <t>Overall social experience</t>
+  </si>
+  <si>
+    <t>Sense of Belonging</t>
+  </si>
+  <si>
+    <t>Grade point average</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1160,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1129,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C231E6-8F8A-44F7-8087-CF662AB14A00}">
-  <dimension ref="A1:K178"/>
+  <dimension ref="A1:K352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="J178" sqref="J178"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="H183" sqref="H183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7002,12 +7041,6100 @@
         <v>1280</v>
       </c>
     </row>
+    <row r="179" spans="1:11">
+      <c r="A179" t="s">
+        <v>51</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C179" t="s">
+        <v>52</v>
+      </c>
+      <c r="D179" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179">
+        <v>2022</v>
+      </c>
+      <c r="G179" t="s">
+        <v>53</v>
+      </c>
+      <c r="H179" t="s">
+        <v>59</v>
+      </c>
+      <c r="I179">
+        <v>6</v>
+      </c>
+      <c r="J179" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="K179">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" t="s">
+        <v>51</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C180" t="s">
+        <v>52</v>
+      </c>
+      <c r="D180" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180">
+        <v>2022</v>
+      </c>
+      <c r="G180" t="s">
+        <v>53</v>
+      </c>
+      <c r="H180" t="s">
+        <v>59</v>
+      </c>
+      <c r="I180">
+        <v>6</v>
+      </c>
+      <c r="J180" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K180">
+        <v>8749</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" t="s">
+        <v>51</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C181" t="s">
+        <v>52</v>
+      </c>
+      <c r="D181" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181">
+        <v>2022</v>
+      </c>
+      <c r="G181" t="s">
+        <v>53</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I181">
+        <v>5</v>
+      </c>
+      <c r="J181" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="K181">
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" t="s">
+        <v>51</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C182" t="s">
+        <v>52</v>
+      </c>
+      <c r="D182" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182">
+        <v>2022</v>
+      </c>
+      <c r="G182" t="s">
+        <v>53</v>
+      </c>
+      <c r="H182" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I182">
+        <v>5</v>
+      </c>
+      <c r="J182" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="K182">
+        <v>30247</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" t="s">
+        <v>51</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C183" t="s">
+        <v>52</v>
+      </c>
+      <c r="D183" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183">
+        <v>2022</v>
+      </c>
+      <c r="G183" t="s">
+        <v>53</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I183">
+        <v>4</v>
+      </c>
+      <c r="J183" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="K183">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" t="s">
+        <v>51</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C184" t="s">
+        <v>52</v>
+      </c>
+      <c r="D184" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" t="s">
+        <v>12</v>
+      </c>
+      <c r="F184">
+        <v>2022</v>
+      </c>
+      <c r="G184" t="s">
+        <v>53</v>
+      </c>
+      <c r="H184" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I184">
+        <v>4</v>
+      </c>
+      <c r="J184" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="K184">
+        <v>15981</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" t="s">
+        <v>51</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C185" t="s">
+        <v>52</v>
+      </c>
+      <c r="D185" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185">
+        <v>2022</v>
+      </c>
+      <c r="G185" t="s">
+        <v>53</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I185">
+        <v>3</v>
+      </c>
+      <c r="J185" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K185">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" t="s">
+        <v>51</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C186" t="s">
+        <v>52</v>
+      </c>
+      <c r="D186" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186">
+        <v>2022</v>
+      </c>
+      <c r="G186" t="s">
+        <v>53</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I186">
+        <v>3</v>
+      </c>
+      <c r="J186" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K186">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" t="s">
+        <v>51</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C187" t="s">
+        <v>52</v>
+      </c>
+      <c r="D187" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187">
+        <v>2022</v>
+      </c>
+      <c r="G187" t="s">
+        <v>53</v>
+      </c>
+      <c r="H187" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="K187">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" t="s">
+        <v>51</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C188" t="s">
+        <v>52</v>
+      </c>
+      <c r="D188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188">
+        <v>2022</v>
+      </c>
+      <c r="G188" t="s">
+        <v>53</v>
+      </c>
+      <c r="H188" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="K188">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" t="s">
+        <v>51</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C189" t="s">
+        <v>52</v>
+      </c>
+      <c r="D189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189">
+        <v>2022</v>
+      </c>
+      <c r="G189" t="s">
+        <v>53</v>
+      </c>
+      <c r="H189" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="K189">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" t="s">
+        <v>51</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C190" t="s">
+        <v>52</v>
+      </c>
+      <c r="D190" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190">
+        <v>2022</v>
+      </c>
+      <c r="G190" t="s">
+        <v>53</v>
+      </c>
+      <c r="H190" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="K190">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" t="s">
+        <v>61</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C191" t="s">
+        <v>52</v>
+      </c>
+      <c r="D191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" t="s">
+        <v>12</v>
+      </c>
+      <c r="F191">
+        <v>2022</v>
+      </c>
+      <c r="G191" t="s">
+        <v>53</v>
+      </c>
+      <c r="H191" t="s">
+        <v>59</v>
+      </c>
+      <c r="I191">
+        <v>6</v>
+      </c>
+      <c r="J191" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K191">
+        <v>8913</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" t="s">
+        <v>61</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C192" t="s">
+        <v>62</v>
+      </c>
+      <c r="D192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" t="s">
+        <v>12</v>
+      </c>
+      <c r="F192">
+        <v>2022</v>
+      </c>
+      <c r="G192" t="s">
+        <v>53</v>
+      </c>
+      <c r="H192" t="s">
+        <v>59</v>
+      </c>
+      <c r="I192">
+        <v>6</v>
+      </c>
+      <c r="J192" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K192">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" t="s">
+        <v>61</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C193" t="s">
+        <v>52</v>
+      </c>
+      <c r="D193" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193">
+        <v>2022</v>
+      </c>
+      <c r="G193" t="s">
+        <v>53</v>
+      </c>
+      <c r="H193" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I193">
+        <v>5</v>
+      </c>
+      <c r="J193" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="K193">
+        <v>20204</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" t="s">
+        <v>61</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C194" t="s">
+        <v>62</v>
+      </c>
+      <c r="D194" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194">
+        <v>2022</v>
+      </c>
+      <c r="G194" t="s">
+        <v>53</v>
+      </c>
+      <c r="H194" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I194">
+        <v>5</v>
+      </c>
+      <c r="J194" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="K194">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" t="s">
+        <v>61</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C195" t="s">
+        <v>52</v>
+      </c>
+      <c r="D195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195">
+        <v>2022</v>
+      </c>
+      <c r="G195" t="s">
+        <v>53</v>
+      </c>
+      <c r="H195" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I195">
+        <v>4</v>
+      </c>
+      <c r="J195" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K195">
+        <v>17977</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" t="s">
+        <v>61</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C196" t="s">
+        <v>62</v>
+      </c>
+      <c r="D196" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196">
+        <v>2022</v>
+      </c>
+      <c r="G196" t="s">
+        <v>53</v>
+      </c>
+      <c r="H196" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I196">
+        <v>4</v>
+      </c>
+      <c r="J196" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="K196">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" t="s">
+        <v>61</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C197" t="s">
+        <v>52</v>
+      </c>
+      <c r="D197" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197">
+        <v>2022</v>
+      </c>
+      <c r="G197" t="s">
+        <v>53</v>
+      </c>
+      <c r="H197" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I197">
+        <v>3</v>
+      </c>
+      <c r="J197" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K197">
+        <v>8406</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" t="s">
+        <v>61</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C198" t="s">
+        <v>62</v>
+      </c>
+      <c r="D198" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198">
+        <v>2022</v>
+      </c>
+      <c r="G198" t="s">
+        <v>53</v>
+      </c>
+      <c r="H198" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I198">
+        <v>3</v>
+      </c>
+      <c r="J198" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="K198">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" t="s">
+        <v>61</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C199" t="s">
+        <v>52</v>
+      </c>
+      <c r="D199" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199">
+        <v>2022</v>
+      </c>
+      <c r="G199" t="s">
+        <v>53</v>
+      </c>
+      <c r="H199" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K199">
+        <v>4571</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" t="s">
+        <v>61</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C200" t="s">
+        <v>62</v>
+      </c>
+      <c r="D200" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200">
+        <v>2022</v>
+      </c>
+      <c r="G200" t="s">
+        <v>53</v>
+      </c>
+      <c r="H200" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="J200" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="K200">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" t="s">
+        <v>61</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C201" t="s">
+        <v>52</v>
+      </c>
+      <c r="D201" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201" t="s">
+        <v>12</v>
+      </c>
+      <c r="F201">
+        <v>2022</v>
+      </c>
+      <c r="G201" t="s">
+        <v>53</v>
+      </c>
+      <c r="H201" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="K201">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" t="s">
+        <v>61</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C202" t="s">
+        <v>62</v>
+      </c>
+      <c r="D202" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202">
+        <v>2022</v>
+      </c>
+      <c r="G202" t="s">
+        <v>53</v>
+      </c>
+      <c r="H202" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K202">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" t="s">
+        <v>60</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C203" t="s">
+        <v>52</v>
+      </c>
+      <c r="D203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203">
+        <v>2022</v>
+      </c>
+      <c r="G203" t="s">
+        <v>53</v>
+      </c>
+      <c r="H203" t="s">
+        <v>59</v>
+      </c>
+      <c r="I203">
+        <v>6</v>
+      </c>
+      <c r="J203" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="K203">
+        <v>6693</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" t="s">
+        <v>60</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C204" t="s">
+        <v>52</v>
+      </c>
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204">
+        <v>2022</v>
+      </c>
+      <c r="G204" t="s">
+        <v>53</v>
+      </c>
+      <c r="H204" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I204">
+        <v>5</v>
+      </c>
+      <c r="J204" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="K204">
+        <v>15888</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205" t="s">
+        <v>60</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C205" t="s">
+        <v>52</v>
+      </c>
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205">
+        <v>2022</v>
+      </c>
+      <c r="G205" t="s">
+        <v>53</v>
+      </c>
+      <c r="H205" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I205">
+        <v>4</v>
+      </c>
+      <c r="J205" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="K205">
+        <v>19409</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" t="s">
+        <v>60</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C206" t="s">
+        <v>52</v>
+      </c>
+      <c r="D206" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206">
+        <v>2022</v>
+      </c>
+      <c r="G206" t="s">
+        <v>53</v>
+      </c>
+      <c r="H206" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I206">
+        <v>3</v>
+      </c>
+      <c r="J206" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="K206">
+        <v>11023</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" t="s">
+        <v>60</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C207" t="s">
+        <v>52</v>
+      </c>
+      <c r="D207" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207">
+        <v>2022</v>
+      </c>
+      <c r="G207" t="s">
+        <v>53</v>
+      </c>
+      <c r="H207" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+      <c r="J207" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K207">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208" t="s">
+        <v>60</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C208" t="s">
+        <v>52</v>
+      </c>
+      <c r="D208" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" t="s">
+        <v>12</v>
+      </c>
+      <c r="F208">
+        <v>2022</v>
+      </c>
+      <c r="G208" t="s">
+        <v>53</v>
+      </c>
+      <c r="H208" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K208">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" t="s">
+        <v>60</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C209" t="s">
+        <v>52</v>
+      </c>
+      <c r="D209" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209">
+        <v>2020</v>
+      </c>
+      <c r="G209" t="s">
+        <v>53</v>
+      </c>
+      <c r="H209" t="s">
+        <v>59</v>
+      </c>
+      <c r="I209">
+        <v>6</v>
+      </c>
+      <c r="J209" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="K209">
+        <v>6280</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210" t="s">
+        <v>61</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C210" t="s">
+        <v>52</v>
+      </c>
+      <c r="D210" t="s">
+        <v>12</v>
+      </c>
+      <c r="E210" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210">
+        <v>2020</v>
+      </c>
+      <c r="G210" t="s">
+        <v>53</v>
+      </c>
+      <c r="H210" t="s">
+        <v>59</v>
+      </c>
+      <c r="I210">
+        <v>6</v>
+      </c>
+      <c r="J210" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K210">
+        <v>9410</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211" t="s">
+        <v>51</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C211" t="s">
+        <v>52</v>
+      </c>
+      <c r="D211" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211">
+        <v>2020</v>
+      </c>
+      <c r="G211" t="s">
+        <v>53</v>
+      </c>
+      <c r="H211" t="s">
+        <v>59</v>
+      </c>
+      <c r="I211">
+        <v>6</v>
+      </c>
+      <c r="J211" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K211">
+        <v>7041</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" t="s">
+        <v>63</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C212" t="s">
+        <v>52</v>
+      </c>
+      <c r="D212" t="s">
+        <v>12</v>
+      </c>
+      <c r="E212" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212">
+        <v>2020</v>
+      </c>
+      <c r="G212" t="s">
+        <v>53</v>
+      </c>
+      <c r="H212" t="s">
+        <v>59</v>
+      </c>
+      <c r="I212">
+        <v>6</v>
+      </c>
+      <c r="J212" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K212">
+        <v>6549</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213" t="s">
+        <v>60</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C213" t="s">
+        <v>52</v>
+      </c>
+      <c r="D213" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213">
+        <v>2020</v>
+      </c>
+      <c r="G213" t="s">
+        <v>53</v>
+      </c>
+      <c r="H213" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I213">
+        <v>5</v>
+      </c>
+      <c r="J213" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="K213">
+        <v>15471</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" t="s">
+        <v>61</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C214" t="s">
+        <v>52</v>
+      </c>
+      <c r="D214" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214">
+        <v>2020</v>
+      </c>
+      <c r="G214" t="s">
+        <v>53</v>
+      </c>
+      <c r="H214" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I214">
+        <v>5</v>
+      </c>
+      <c r="J214" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K214">
+        <v>20401</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" t="s">
+        <v>51</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C215" t="s">
+        <v>52</v>
+      </c>
+      <c r="D215" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" t="s">
+        <v>12</v>
+      </c>
+      <c r="F215">
+        <v>2020</v>
+      </c>
+      <c r="G215" t="s">
+        <v>53</v>
+      </c>
+      <c r="H215" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I215">
+        <v>5</v>
+      </c>
+      <c r="J215" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="K215">
+        <v>24835</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216" t="s">
+        <v>63</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C216" t="s">
+        <v>52</v>
+      </c>
+      <c r="D216" t="s">
+        <v>12</v>
+      </c>
+      <c r="E216" t="s">
+        <v>12</v>
+      </c>
+      <c r="F216">
+        <v>2020</v>
+      </c>
+      <c r="G216" t="s">
+        <v>53</v>
+      </c>
+      <c r="H216" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I216">
+        <v>5</v>
+      </c>
+      <c r="J216" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="K216">
+        <v>16129</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" t="s">
+        <v>60</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C217" t="s">
+        <v>52</v>
+      </c>
+      <c r="D217" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217" t="s">
+        <v>12</v>
+      </c>
+      <c r="F217">
+        <v>2020</v>
+      </c>
+      <c r="G217" t="s">
+        <v>53</v>
+      </c>
+      <c r="H217" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I217">
+        <v>4</v>
+      </c>
+      <c r="J217" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K217">
+        <v>20086</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218" t="s">
+        <v>61</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C218" t="s">
+        <v>52</v>
+      </c>
+      <c r="D218" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218" t="s">
+        <v>12</v>
+      </c>
+      <c r="F218">
+        <v>2020</v>
+      </c>
+      <c r="G218" t="s">
+        <v>53</v>
+      </c>
+      <c r="H218" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I218">
+        <v>4</v>
+      </c>
+      <c r="J218" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K218">
+        <v>19395</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219" t="s">
+        <v>51</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C219" t="s">
+        <v>52</v>
+      </c>
+      <c r="D219" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219" t="s">
+        <v>12</v>
+      </c>
+      <c r="F219">
+        <v>2020</v>
+      </c>
+      <c r="G219" t="s">
+        <v>53</v>
+      </c>
+      <c r="H219" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I219">
+        <v>4</v>
+      </c>
+      <c r="J219" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="K219">
+        <v>22738</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" t="s">
+        <v>63</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C220" t="s">
+        <v>52</v>
+      </c>
+      <c r="D220" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220">
+        <v>2020</v>
+      </c>
+      <c r="G220" t="s">
+        <v>53</v>
+      </c>
+      <c r="H220" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I220">
+        <v>4</v>
+      </c>
+      <c r="J220" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="K220">
+        <v>18189</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221" t="s">
+        <v>60</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C221" t="s">
+        <v>52</v>
+      </c>
+      <c r="D221" t="s">
+        <v>12</v>
+      </c>
+      <c r="E221" t="s">
+        <v>12</v>
+      </c>
+      <c r="F221">
+        <v>2020</v>
+      </c>
+      <c r="G221" t="s">
+        <v>53</v>
+      </c>
+      <c r="H221" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I221">
+        <v>3</v>
+      </c>
+      <c r="J221" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="K221">
+        <v>12848</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C222" t="s">
+        <v>52</v>
+      </c>
+      <c r="D222" t="s">
+        <v>12</v>
+      </c>
+      <c r="E222" t="s">
+        <v>12</v>
+      </c>
+      <c r="F222">
+        <v>2020</v>
+      </c>
+      <c r="G222" t="s">
+        <v>53</v>
+      </c>
+      <c r="H222" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I222">
+        <v>3</v>
+      </c>
+      <c r="J222" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K222">
+        <v>10114</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" t="s">
+        <v>51</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C223" t="s">
+        <v>52</v>
+      </c>
+      <c r="D223" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223">
+        <v>2020</v>
+      </c>
+      <c r="G223" t="s">
+        <v>53</v>
+      </c>
+      <c r="H223" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I223">
+        <v>3</v>
+      </c>
+      <c r="J223" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="K223">
+        <v>8303</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224" t="s">
+        <v>63</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C224" t="s">
+        <v>52</v>
+      </c>
+      <c r="D224" t="s">
+        <v>12</v>
+      </c>
+      <c r="E224" t="s">
+        <v>12</v>
+      </c>
+      <c r="F224">
+        <v>2020</v>
+      </c>
+      <c r="G224" t="s">
+        <v>53</v>
+      </c>
+      <c r="H224" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I224">
+        <v>3</v>
+      </c>
+      <c r="J224" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K224">
+        <v>13721</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225" t="s">
+        <v>60</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C225" t="s">
+        <v>52</v>
+      </c>
+      <c r="D225" t="s">
+        <v>12</v>
+      </c>
+      <c r="E225" t="s">
+        <v>12</v>
+      </c>
+      <c r="F225">
+        <v>2020</v>
+      </c>
+      <c r="G225" t="s">
+        <v>53</v>
+      </c>
+      <c r="H225" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="K225">
+        <v>7248</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226" t="s">
+        <v>61</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C226" t="s">
+        <v>52</v>
+      </c>
+      <c r="D226" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226" t="s">
+        <v>12</v>
+      </c>
+      <c r="F226">
+        <v>2020</v>
+      </c>
+      <c r="G226" t="s">
+        <v>53</v>
+      </c>
+      <c r="H226" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K226">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227" t="s">
+        <v>51</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C227" t="s">
+        <v>52</v>
+      </c>
+      <c r="D227" t="s">
+        <v>12</v>
+      </c>
+      <c r="E227" t="s">
+        <v>12</v>
+      </c>
+      <c r="F227">
+        <v>2020</v>
+      </c>
+      <c r="G227" t="s">
+        <v>53</v>
+      </c>
+      <c r="H227" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="K227">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228" t="s">
+        <v>63</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C228" t="s">
+        <v>52</v>
+      </c>
+      <c r="D228" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228" t="s">
+        <v>12</v>
+      </c>
+      <c r="F228">
+        <v>2020</v>
+      </c>
+      <c r="G228" t="s">
+        <v>53</v>
+      </c>
+      <c r="H228" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="K228">
+        <v>8392</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="A229" t="s">
+        <v>60</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C229" t="s">
+        <v>52</v>
+      </c>
+      <c r="D229" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229" t="s">
+        <v>12</v>
+      </c>
+      <c r="F229">
+        <v>2020</v>
+      </c>
+      <c r="G229" t="s">
+        <v>53</v>
+      </c>
+      <c r="H229" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K229">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230" t="s">
+        <v>61</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C230" t="s">
+        <v>52</v>
+      </c>
+      <c r="D230" t="s">
+        <v>12</v>
+      </c>
+      <c r="E230" t="s">
+        <v>12</v>
+      </c>
+      <c r="F230">
+        <v>2020</v>
+      </c>
+      <c r="G230" t="s">
+        <v>53</v>
+      </c>
+      <c r="H230" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="K230">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="A231" t="s">
+        <v>51</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C231" t="s">
+        <v>52</v>
+      </c>
+      <c r="D231" t="s">
+        <v>12</v>
+      </c>
+      <c r="E231" t="s">
+        <v>12</v>
+      </c>
+      <c r="F231">
+        <v>2020</v>
+      </c>
+      <c r="G231" t="s">
+        <v>53</v>
+      </c>
+      <c r="H231" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="K231">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232" t="s">
+        <v>63</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C232" t="s">
+        <v>52</v>
+      </c>
+      <c r="D232" t="s">
+        <v>12</v>
+      </c>
+      <c r="E232" t="s">
+        <v>12</v>
+      </c>
+      <c r="F232">
+        <v>2020</v>
+      </c>
+      <c r="G232" t="s">
+        <v>53</v>
+      </c>
+      <c r="H232" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="K232">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233" t="s">
+        <v>60</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C233" t="s">
+        <v>52</v>
+      </c>
+      <c r="D233" t="s">
+        <v>12</v>
+      </c>
+      <c r="E233" t="s">
+        <v>12</v>
+      </c>
+      <c r="F233">
+        <v>2020</v>
+      </c>
+      <c r="G233" t="s">
+        <v>53</v>
+      </c>
+      <c r="H233" t="s">
+        <v>59</v>
+      </c>
+      <c r="I233">
+        <v>6</v>
+      </c>
+      <c r="J233" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K233">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234" t="s">
+        <v>61</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C234" t="s">
+        <v>52</v>
+      </c>
+      <c r="D234" t="s">
+        <v>12</v>
+      </c>
+      <c r="E234" t="s">
+        <v>12</v>
+      </c>
+      <c r="F234">
+        <v>2020</v>
+      </c>
+      <c r="G234" t="s">
+        <v>53</v>
+      </c>
+      <c r="H234" t="s">
+        <v>59</v>
+      </c>
+      <c r="I234">
+        <v>6</v>
+      </c>
+      <c r="J234" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K234">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235" t="s">
+        <v>51</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C235" t="s">
+        <v>52</v>
+      </c>
+      <c r="D235" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" t="s">
+        <v>12</v>
+      </c>
+      <c r="F235">
+        <v>2020</v>
+      </c>
+      <c r="G235" t="s">
+        <v>53</v>
+      </c>
+      <c r="H235" t="s">
+        <v>59</v>
+      </c>
+      <c r="I235">
+        <v>6</v>
+      </c>
+      <c r="J235" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K235">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236" t="s">
+        <v>63</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C236" t="s">
+        <v>52</v>
+      </c>
+      <c r="D236" t="s">
+        <v>12</v>
+      </c>
+      <c r="E236" t="s">
+        <v>12</v>
+      </c>
+      <c r="F236">
+        <v>2020</v>
+      </c>
+      <c r="G236" t="s">
+        <v>53</v>
+      </c>
+      <c r="H236" t="s">
+        <v>59</v>
+      </c>
+      <c r="I236">
+        <v>6</v>
+      </c>
+      <c r="J236" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K236">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237" t="s">
+        <v>60</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C237" t="s">
+        <v>52</v>
+      </c>
+      <c r="D237" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237" t="s">
+        <v>12</v>
+      </c>
+      <c r="F237">
+        <v>2020</v>
+      </c>
+      <c r="G237" t="s">
+        <v>53</v>
+      </c>
+      <c r="H237" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I237">
+        <v>5</v>
+      </c>
+      <c r="J237" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="K237">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238" t="s">
+        <v>61</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C238" t="s">
+        <v>52</v>
+      </c>
+      <c r="D238" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238" t="s">
+        <v>12</v>
+      </c>
+      <c r="F238">
+        <v>2020</v>
+      </c>
+      <c r="G238" t="s">
+        <v>53</v>
+      </c>
+      <c r="H238" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I238">
+        <v>5</v>
+      </c>
+      <c r="J238" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="K238">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239" t="s">
+        <v>51</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C239" t="s">
+        <v>52</v>
+      </c>
+      <c r="D239" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239" t="s">
+        <v>12</v>
+      </c>
+      <c r="F239">
+        <v>2020</v>
+      </c>
+      <c r="G239" t="s">
+        <v>53</v>
+      </c>
+      <c r="H239" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I239">
+        <v>5</v>
+      </c>
+      <c r="J239" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="K239">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="A240" t="s">
+        <v>63</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C240" t="s">
+        <v>52</v>
+      </c>
+      <c r="D240" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240" t="s">
+        <v>12</v>
+      </c>
+      <c r="F240">
+        <v>2020</v>
+      </c>
+      <c r="G240" t="s">
+        <v>53</v>
+      </c>
+      <c r="H240" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I240">
+        <v>5</v>
+      </c>
+      <c r="J240" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="K240">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="A241" t="s">
+        <v>60</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C241" t="s">
+        <v>52</v>
+      </c>
+      <c r="D241" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241" t="s">
+        <v>12</v>
+      </c>
+      <c r="F241">
+        <v>2020</v>
+      </c>
+      <c r="G241" t="s">
+        <v>53</v>
+      </c>
+      <c r="H241" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I241">
+        <v>4</v>
+      </c>
+      <c r="J241" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K241">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="A242" t="s">
+        <v>61</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C242" t="s">
+        <v>52</v>
+      </c>
+      <c r="D242" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242" t="s">
+        <v>12</v>
+      </c>
+      <c r="F242">
+        <v>2020</v>
+      </c>
+      <c r="G242" t="s">
+        <v>53</v>
+      </c>
+      <c r="H242" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I242">
+        <v>4</v>
+      </c>
+      <c r="J242" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K242">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
+      <c r="A243" t="s">
+        <v>51</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C243" t="s">
+        <v>52</v>
+      </c>
+      <c r="D243" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" t="s">
+        <v>12</v>
+      </c>
+      <c r="F243">
+        <v>2020</v>
+      </c>
+      <c r="G243" t="s">
+        <v>53</v>
+      </c>
+      <c r="H243" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I243">
+        <v>4</v>
+      </c>
+      <c r="J243" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="K243">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="A244" t="s">
+        <v>63</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C244" t="s">
+        <v>52</v>
+      </c>
+      <c r="D244" t="s">
+        <v>12</v>
+      </c>
+      <c r="E244" t="s">
+        <v>12</v>
+      </c>
+      <c r="F244">
+        <v>2020</v>
+      </c>
+      <c r="G244" t="s">
+        <v>53</v>
+      </c>
+      <c r="H244" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I244">
+        <v>4</v>
+      </c>
+      <c r="J244" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="K244">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
+      <c r="A245" t="s">
+        <v>60</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C245" t="s">
+        <v>52</v>
+      </c>
+      <c r="D245" t="s">
+        <v>12</v>
+      </c>
+      <c r="E245" t="s">
+        <v>12</v>
+      </c>
+      <c r="F245">
+        <v>2020</v>
+      </c>
+      <c r="G245" t="s">
+        <v>53</v>
+      </c>
+      <c r="H245" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I245">
+        <v>3</v>
+      </c>
+      <c r="J245" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="K245">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
+      <c r="A246" t="s">
+        <v>61</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C246" t="s">
+        <v>52</v>
+      </c>
+      <c r="D246" t="s">
+        <v>12</v>
+      </c>
+      <c r="E246" t="s">
+        <v>12</v>
+      </c>
+      <c r="F246">
+        <v>2020</v>
+      </c>
+      <c r="G246" t="s">
+        <v>53</v>
+      </c>
+      <c r="H246" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I246">
+        <v>3</v>
+      </c>
+      <c r="J246" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K246">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
+      <c r="A247" t="s">
+        <v>51</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C247" t="s">
+        <v>52</v>
+      </c>
+      <c r="D247" t="s">
+        <v>12</v>
+      </c>
+      <c r="E247" t="s">
+        <v>12</v>
+      </c>
+      <c r="F247">
+        <v>2020</v>
+      </c>
+      <c r="G247" t="s">
+        <v>53</v>
+      </c>
+      <c r="H247" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I247">
+        <v>3</v>
+      </c>
+      <c r="J247" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K247">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
+      <c r="A248" t="s">
+        <v>63</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C248" t="s">
+        <v>52</v>
+      </c>
+      <c r="D248" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248" t="s">
+        <v>12</v>
+      </c>
+      <c r="F248">
+        <v>2020</v>
+      </c>
+      <c r="G248" t="s">
+        <v>53</v>
+      </c>
+      <c r="H248" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I248">
+        <v>3</v>
+      </c>
+      <c r="J248" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="K248">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
+      <c r="A249" t="s">
+        <v>60</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C249" t="s">
+        <v>52</v>
+      </c>
+      <c r="D249" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249" t="s">
+        <v>12</v>
+      </c>
+      <c r="F249">
+        <v>2020</v>
+      </c>
+      <c r="G249" t="s">
+        <v>53</v>
+      </c>
+      <c r="H249" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I249">
+        <v>2</v>
+      </c>
+      <c r="J249" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="K249">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
+      <c r="A250" t="s">
+        <v>61</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C250" t="s">
+        <v>52</v>
+      </c>
+      <c r="D250" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250" t="s">
+        <v>12</v>
+      </c>
+      <c r="F250">
+        <v>2020</v>
+      </c>
+      <c r="G250" t="s">
+        <v>53</v>
+      </c>
+      <c r="H250" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I250">
+        <v>2</v>
+      </c>
+      <c r="J250" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="K250">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
+      <c r="A251" t="s">
+        <v>51</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C251" t="s">
+        <v>52</v>
+      </c>
+      <c r="D251" t="s">
+        <v>12</v>
+      </c>
+      <c r="E251" t="s">
+        <v>12</v>
+      </c>
+      <c r="F251">
+        <v>2020</v>
+      </c>
+      <c r="G251" t="s">
+        <v>53</v>
+      </c>
+      <c r="H251" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I251">
+        <v>2</v>
+      </c>
+      <c r="J251" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="K251">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
+      <c r="A252" t="s">
+        <v>63</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C252" t="s">
+        <v>52</v>
+      </c>
+      <c r="D252" t="s">
+        <v>12</v>
+      </c>
+      <c r="E252" t="s">
+        <v>12</v>
+      </c>
+      <c r="F252">
+        <v>2020</v>
+      </c>
+      <c r="G252" t="s">
+        <v>53</v>
+      </c>
+      <c r="H252" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I252">
+        <v>2</v>
+      </c>
+      <c r="J252" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K252">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
+      <c r="A253" t="s">
+        <v>60</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C253" t="s">
+        <v>52</v>
+      </c>
+      <c r="D253" t="s">
+        <v>12</v>
+      </c>
+      <c r="E253" t="s">
+        <v>12</v>
+      </c>
+      <c r="F253">
+        <v>2020</v>
+      </c>
+      <c r="G253" t="s">
+        <v>53</v>
+      </c>
+      <c r="H253" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K253">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
+      <c r="A254" t="s">
+        <v>61</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C254" t="s">
+        <v>52</v>
+      </c>
+      <c r="D254" t="s">
+        <v>12</v>
+      </c>
+      <c r="E254" t="s">
+        <v>12</v>
+      </c>
+      <c r="F254">
+        <v>2020</v>
+      </c>
+      <c r="G254" t="s">
+        <v>53</v>
+      </c>
+      <c r="H254" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K254">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
+      <c r="A255" t="s">
+        <v>51</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C255" t="s">
+        <v>52</v>
+      </c>
+      <c r="D255" t="s">
+        <v>12</v>
+      </c>
+      <c r="E255" t="s">
+        <v>12</v>
+      </c>
+      <c r="F255">
+        <v>2020</v>
+      </c>
+      <c r="G255" t="s">
+        <v>53</v>
+      </c>
+      <c r="H255" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="K255">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
+      <c r="A256" t="s">
+        <v>63</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C256" t="s">
+        <v>52</v>
+      </c>
+      <c r="D256" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" t="s">
+        <v>12</v>
+      </c>
+      <c r="F256">
+        <v>2020</v>
+      </c>
+      <c r="G256" t="s">
+        <v>53</v>
+      </c>
+      <c r="H256" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K256">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
+      <c r="A257" t="s">
+        <v>60</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C257" t="s">
+        <v>52</v>
+      </c>
+      <c r="D257" t="s">
+        <v>12</v>
+      </c>
+      <c r="E257" t="s">
+        <v>12</v>
+      </c>
+      <c r="F257">
+        <v>2018</v>
+      </c>
+      <c r="G257" t="s">
+        <v>53</v>
+      </c>
+      <c r="H257" t="s">
+        <v>59</v>
+      </c>
+      <c r="I257">
+        <v>6</v>
+      </c>
+      <c r="J257" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K257">
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
+      <c r="A258" t="s">
+        <v>61</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C258" t="s">
+        <v>52</v>
+      </c>
+      <c r="D258" t="s">
+        <v>12</v>
+      </c>
+      <c r="E258" t="s">
+        <v>12</v>
+      </c>
+      <c r="F258">
+        <v>2018</v>
+      </c>
+      <c r="G258" t="s">
+        <v>53</v>
+      </c>
+      <c r="H258" t="s">
+        <v>59</v>
+      </c>
+      <c r="I258">
+        <v>6</v>
+      </c>
+      <c r="J258" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="K258">
+        <v>6563</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
+      <c r="A259" t="s">
+        <v>51</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C259" t="s">
+        <v>52</v>
+      </c>
+      <c r="D259" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259" t="s">
+        <v>12</v>
+      </c>
+      <c r="F259">
+        <v>2018</v>
+      </c>
+      <c r="G259" t="s">
+        <v>53</v>
+      </c>
+      <c r="H259" t="s">
+        <v>59</v>
+      </c>
+      <c r="I259">
+        <v>6</v>
+      </c>
+      <c r="J259" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K259">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
+      <c r="A260" t="s">
+        <v>63</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C260" t="s">
+        <v>52</v>
+      </c>
+      <c r="D260" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260" t="s">
+        <v>12</v>
+      </c>
+      <c r="F260">
+        <v>2018</v>
+      </c>
+      <c r="G260" t="s">
+        <v>53</v>
+      </c>
+      <c r="H260" t="s">
+        <v>59</v>
+      </c>
+      <c r="I260">
+        <v>6</v>
+      </c>
+      <c r="J260" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="K260">
+        <v>5089</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
+      <c r="A261" t="s">
+        <v>60</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C261" t="s">
+        <v>52</v>
+      </c>
+      <c r="D261" t="s">
+        <v>12</v>
+      </c>
+      <c r="E261" t="s">
+        <v>12</v>
+      </c>
+      <c r="F261">
+        <v>2018</v>
+      </c>
+      <c r="G261" t="s">
+        <v>53</v>
+      </c>
+      <c r="H261" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I261">
+        <v>5</v>
+      </c>
+      <c r="J261" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="K261">
+        <v>13594</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
+      <c r="A262" t="s">
+        <v>61</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C262" t="s">
+        <v>52</v>
+      </c>
+      <c r="D262" t="s">
+        <v>12</v>
+      </c>
+      <c r="E262" t="s">
+        <v>12</v>
+      </c>
+      <c r="F262">
+        <v>2018</v>
+      </c>
+      <c r="G262" t="s">
+        <v>53</v>
+      </c>
+      <c r="H262" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I262">
+        <v>5</v>
+      </c>
+      <c r="J262" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K262">
+        <v>17132</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
+      <c r="A263" t="s">
+        <v>51</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C263" t="s">
+        <v>52</v>
+      </c>
+      <c r="D263" t="s">
+        <v>12</v>
+      </c>
+      <c r="E263" t="s">
+        <v>12</v>
+      </c>
+      <c r="F263">
+        <v>2018</v>
+      </c>
+      <c r="G263" t="s">
+        <v>53</v>
+      </c>
+      <c r="H263" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I263">
+        <v>5</v>
+      </c>
+      <c r="J263" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="K263">
+        <v>20108</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
+      <c r="A264" t="s">
+        <v>63</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C264" t="s">
+        <v>52</v>
+      </c>
+      <c r="D264" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264" t="s">
+        <v>12</v>
+      </c>
+      <c r="F264">
+        <v>2018</v>
+      </c>
+      <c r="G264" t="s">
+        <v>53</v>
+      </c>
+      <c r="H264" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I264">
+        <v>5</v>
+      </c>
+      <c r="J264" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="K264">
+        <v>12619</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
+      <c r="A265" t="s">
+        <v>60</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C265" t="s">
+        <v>52</v>
+      </c>
+      <c r="D265" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265" t="s">
+        <v>12</v>
+      </c>
+      <c r="F265">
+        <v>2018</v>
+      </c>
+      <c r="G265" t="s">
+        <v>53</v>
+      </c>
+      <c r="H265" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I265">
+        <v>4</v>
+      </c>
+      <c r="J265" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K265">
+        <v>17224</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
+      <c r="A266" t="s">
+        <v>61</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C266" t="s">
+        <v>52</v>
+      </c>
+      <c r="D266" t="s">
+        <v>12</v>
+      </c>
+      <c r="E266" t="s">
+        <v>12</v>
+      </c>
+      <c r="F266">
+        <v>2018</v>
+      </c>
+      <c r="G266" t="s">
+        <v>53</v>
+      </c>
+      <c r="H266" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I266">
+        <v>4</v>
+      </c>
+      <c r="J266" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="K266">
+        <v>18138</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
+      <c r="A267" t="s">
+        <v>51</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C267" t="s">
+        <v>52</v>
+      </c>
+      <c r="D267" t="s">
+        <v>12</v>
+      </c>
+      <c r="E267" t="s">
+        <v>12</v>
+      </c>
+      <c r="F267">
+        <v>2018</v>
+      </c>
+      <c r="G267" t="s">
+        <v>53</v>
+      </c>
+      <c r="H267" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I267">
+        <v>4</v>
+      </c>
+      <c r="J267" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="K267">
+        <v>19908</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
+      <c r="A268" t="s">
+        <v>63</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C268" t="s">
+        <v>52</v>
+      </c>
+      <c r="D268" t="s">
+        <v>12</v>
+      </c>
+      <c r="E268" t="s">
+        <v>12</v>
+      </c>
+      <c r="F268">
+        <v>2018</v>
+      </c>
+      <c r="G268" t="s">
+        <v>53</v>
+      </c>
+      <c r="H268" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I268">
+        <v>4</v>
+      </c>
+      <c r="J268" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="K268">
+        <v>15619</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
+      <c r="A269" t="s">
+        <v>60</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C269" t="s">
+        <v>52</v>
+      </c>
+      <c r="D269" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269" t="s">
+        <v>12</v>
+      </c>
+      <c r="F269">
+        <v>2018</v>
+      </c>
+      <c r="G269" t="s">
+        <v>53</v>
+      </c>
+      <c r="H269" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I269">
+        <v>3</v>
+      </c>
+      <c r="J269" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="K269">
+        <v>10666</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
+      <c r="A270" t="s">
+        <v>61</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C270" t="s">
+        <v>52</v>
+      </c>
+      <c r="D270" t="s">
+        <v>12</v>
+      </c>
+      <c r="E270" t="s">
+        <v>12</v>
+      </c>
+      <c r="F270">
+        <v>2018</v>
+      </c>
+      <c r="G270" t="s">
+        <v>53</v>
+      </c>
+      <c r="H270" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I270">
+        <v>3</v>
+      </c>
+      <c r="J270" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K270">
+        <v>9298</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
+      <c r="A271" t="s">
+        <v>51</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C271" t="s">
+        <v>52</v>
+      </c>
+      <c r="D271" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271" t="s">
+        <v>12</v>
+      </c>
+      <c r="F271">
+        <v>2018</v>
+      </c>
+      <c r="G271" t="s">
+        <v>53</v>
+      </c>
+      <c r="H271" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I271">
+        <v>3</v>
+      </c>
+      <c r="J271" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="K271">
+        <v>7763</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
+      <c r="A272" t="s">
+        <v>63</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C272" t="s">
+        <v>52</v>
+      </c>
+      <c r="D272" t="s">
+        <v>12</v>
+      </c>
+      <c r="E272" t="s">
+        <v>12</v>
+      </c>
+      <c r="F272">
+        <v>2018</v>
+      </c>
+      <c r="G272" t="s">
+        <v>53</v>
+      </c>
+      <c r="H272" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I272">
+        <v>3</v>
+      </c>
+      <c r="J272" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="K272">
+        <v>12521</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
+      <c r="A273" t="s">
+        <v>60</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C273" t="s">
+        <v>52</v>
+      </c>
+      <c r="D273" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273" t="s">
+        <v>12</v>
+      </c>
+      <c r="F273">
+        <v>2018</v>
+      </c>
+      <c r="G273" t="s">
+        <v>53</v>
+      </c>
+      <c r="H273" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I273">
+        <v>2</v>
+      </c>
+      <c r="J273" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K273">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
+      <c r="A274" t="s">
+        <v>61</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C274" t="s">
+        <v>52</v>
+      </c>
+      <c r="D274" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274" t="s">
+        <v>12</v>
+      </c>
+      <c r="F274">
+        <v>2018</v>
+      </c>
+      <c r="G274" t="s">
+        <v>53</v>
+      </c>
+      <c r="H274" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I274">
+        <v>2</v>
+      </c>
+      <c r="J274" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K274">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
+      <c r="A275" t="s">
+        <v>51</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C275" t="s">
+        <v>52</v>
+      </c>
+      <c r="D275" t="s">
+        <v>12</v>
+      </c>
+      <c r="E275" t="s">
+        <v>12</v>
+      </c>
+      <c r="F275">
+        <v>2018</v>
+      </c>
+      <c r="G275" t="s">
+        <v>53</v>
+      </c>
+      <c r="H275" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I275">
+        <v>2</v>
+      </c>
+      <c r="J275" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K275">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
+      <c r="A276" t="s">
+        <v>63</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C276" t="s">
+        <v>52</v>
+      </c>
+      <c r="D276" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276" t="s">
+        <v>12</v>
+      </c>
+      <c r="F276">
+        <v>2018</v>
+      </c>
+      <c r="G276" t="s">
+        <v>53</v>
+      </c>
+      <c r="H276" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I276">
+        <v>2</v>
+      </c>
+      <c r="J276" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K276">
+        <v>7966</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
+      <c r="A277" t="s">
+        <v>60</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C277" t="s">
+        <v>52</v>
+      </c>
+      <c r="D277" t="s">
+        <v>12</v>
+      </c>
+      <c r="E277" t="s">
+        <v>12</v>
+      </c>
+      <c r="F277">
+        <v>2018</v>
+      </c>
+      <c r="G277" t="s">
+        <v>53</v>
+      </c>
+      <c r="H277" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="K277">
+        <v>5159</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
+      <c r="A278" t="s">
+        <v>61</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C278" t="s">
+        <v>52</v>
+      </c>
+      <c r="D278" t="s">
+        <v>12</v>
+      </c>
+      <c r="E278" t="s">
+        <v>12</v>
+      </c>
+      <c r="F278">
+        <v>2018</v>
+      </c>
+      <c r="G278" t="s">
+        <v>53</v>
+      </c>
+      <c r="H278" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K278">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
+      <c r="A279" t="s">
+        <v>51</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C279" t="s">
+        <v>52</v>
+      </c>
+      <c r="D279" t="s">
+        <v>12</v>
+      </c>
+      <c r="E279" t="s">
+        <v>12</v>
+      </c>
+      <c r="F279">
+        <v>2018</v>
+      </c>
+      <c r="G279" t="s">
+        <v>53</v>
+      </c>
+      <c r="H279" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="K279">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
+      <c r="A280" t="s">
+        <v>63</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C280" t="s">
+        <v>52</v>
+      </c>
+      <c r="D280" t="s">
+        <v>12</v>
+      </c>
+      <c r="E280" t="s">
+        <v>12</v>
+      </c>
+      <c r="F280">
+        <v>2018</v>
+      </c>
+      <c r="G280" t="s">
+        <v>53</v>
+      </c>
+      <c r="H280" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K280">
+        <v>4941</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
+      <c r="A281" t="s">
+        <v>60</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C281" t="s">
+        <v>52</v>
+      </c>
+      <c r="D281" t="s">
+        <v>12</v>
+      </c>
+      <c r="E281" t="s">
+        <v>12</v>
+      </c>
+      <c r="F281">
+        <v>2018</v>
+      </c>
+      <c r="G281" t="s">
+        <v>53</v>
+      </c>
+      <c r="H281" t="s">
+        <v>59</v>
+      </c>
+      <c r="I281">
+        <v>6</v>
+      </c>
+      <c r="J281" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K281">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
+      <c r="A282" t="s">
+        <v>61</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C282" t="s">
+        <v>52</v>
+      </c>
+      <c r="D282" t="s">
+        <v>12</v>
+      </c>
+      <c r="E282" t="s">
+        <v>12</v>
+      </c>
+      <c r="F282">
+        <v>2018</v>
+      </c>
+      <c r="G282" t="s">
+        <v>53</v>
+      </c>
+      <c r="H282" t="s">
+        <v>59</v>
+      </c>
+      <c r="I282">
+        <v>6</v>
+      </c>
+      <c r="J282" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="K282">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
+      <c r="A283" t="s">
+        <v>51</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C283" t="s">
+        <v>52</v>
+      </c>
+      <c r="D283" t="s">
+        <v>12</v>
+      </c>
+      <c r="E283" t="s">
+        <v>12</v>
+      </c>
+      <c r="F283">
+        <v>2018</v>
+      </c>
+      <c r="G283" t="s">
+        <v>53</v>
+      </c>
+      <c r="H283" t="s">
+        <v>59</v>
+      </c>
+      <c r="I283">
+        <v>6</v>
+      </c>
+      <c r="J283" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K283">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
+      <c r="A284" t="s">
+        <v>63</v>
+      </c>
+      <c r="B284" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C284" t="s">
+        <v>52</v>
+      </c>
+      <c r="D284" t="s">
+        <v>12</v>
+      </c>
+      <c r="E284" t="s">
+        <v>12</v>
+      </c>
+      <c r="F284">
+        <v>2018</v>
+      </c>
+      <c r="G284" t="s">
+        <v>53</v>
+      </c>
+      <c r="H284" t="s">
+        <v>59</v>
+      </c>
+      <c r="I284">
+        <v>6</v>
+      </c>
+      <c r="J284" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K284">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
+      <c r="A285" t="s">
+        <v>60</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C285" t="s">
+        <v>52</v>
+      </c>
+      <c r="D285" t="s">
+        <v>12</v>
+      </c>
+      <c r="E285" t="s">
+        <v>12</v>
+      </c>
+      <c r="F285">
+        <v>2018</v>
+      </c>
+      <c r="G285" t="s">
+        <v>53</v>
+      </c>
+      <c r="H285" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I285">
+        <v>5</v>
+      </c>
+      <c r="J285" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K285">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
+      <c r="A286" t="s">
+        <v>61</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C286" t="s">
+        <v>52</v>
+      </c>
+      <c r="D286" t="s">
+        <v>12</v>
+      </c>
+      <c r="E286" t="s">
+        <v>12</v>
+      </c>
+      <c r="F286">
+        <v>2018</v>
+      </c>
+      <c r="G286" t="s">
+        <v>53</v>
+      </c>
+      <c r="H286" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I286">
+        <v>5</v>
+      </c>
+      <c r="J286" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="K286">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
+      <c r="A287" t="s">
+        <v>51</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C287" t="s">
+        <v>52</v>
+      </c>
+      <c r="D287" t="s">
+        <v>12</v>
+      </c>
+      <c r="E287" t="s">
+        <v>12</v>
+      </c>
+      <c r="F287">
+        <v>2018</v>
+      </c>
+      <c r="G287" t="s">
+        <v>53</v>
+      </c>
+      <c r="H287" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I287">
+        <v>5</v>
+      </c>
+      <c r="J287" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="K287">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
+      <c r="A288" t="s">
+        <v>63</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C288" t="s">
+        <v>52</v>
+      </c>
+      <c r="D288" t="s">
+        <v>12</v>
+      </c>
+      <c r="E288" t="s">
+        <v>12</v>
+      </c>
+      <c r="F288">
+        <v>2018</v>
+      </c>
+      <c r="G288" t="s">
+        <v>53</v>
+      </c>
+      <c r="H288" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I288">
+        <v>5</v>
+      </c>
+      <c r="J288" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K288">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
+      <c r="A289" t="s">
+        <v>60</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C289" t="s">
+        <v>52</v>
+      </c>
+      <c r="D289" t="s">
+        <v>12</v>
+      </c>
+      <c r="E289" t="s">
+        <v>12</v>
+      </c>
+      <c r="F289">
+        <v>2018</v>
+      </c>
+      <c r="G289" t="s">
+        <v>53</v>
+      </c>
+      <c r="H289" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I289">
+        <v>4</v>
+      </c>
+      <c r="J289" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K289">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
+      <c r="A290" t="s">
+        <v>61</v>
+      </c>
+      <c r="B290" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C290" t="s">
+        <v>52</v>
+      </c>
+      <c r="D290" t="s">
+        <v>12</v>
+      </c>
+      <c r="E290" t="s">
+        <v>12</v>
+      </c>
+      <c r="F290">
+        <v>2018</v>
+      </c>
+      <c r="G290" t="s">
+        <v>53</v>
+      </c>
+      <c r="H290" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I290">
+        <v>4</v>
+      </c>
+      <c r="J290" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="K290">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
+      <c r="A291" t="s">
+        <v>51</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C291" t="s">
+        <v>52</v>
+      </c>
+      <c r="D291" t="s">
+        <v>12</v>
+      </c>
+      <c r="E291" t="s">
+        <v>12</v>
+      </c>
+      <c r="F291">
+        <v>2018</v>
+      </c>
+      <c r="G291" t="s">
+        <v>53</v>
+      </c>
+      <c r="H291" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I291">
+        <v>4</v>
+      </c>
+      <c r="J291" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="K291">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
+      <c r="A292" t="s">
+        <v>63</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C292" t="s">
+        <v>52</v>
+      </c>
+      <c r="D292" t="s">
+        <v>12</v>
+      </c>
+      <c r="E292" t="s">
+        <v>12</v>
+      </c>
+      <c r="F292">
+        <v>2018</v>
+      </c>
+      <c r="G292" t="s">
+        <v>53</v>
+      </c>
+      <c r="H292" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I292">
+        <v>4</v>
+      </c>
+      <c r="J292" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="K292">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
+      <c r="A293" t="s">
+        <v>60</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C293" t="s">
+        <v>52</v>
+      </c>
+      <c r="D293" t="s">
+        <v>12</v>
+      </c>
+      <c r="E293" t="s">
+        <v>12</v>
+      </c>
+      <c r="F293">
+        <v>2018</v>
+      </c>
+      <c r="G293" t="s">
+        <v>53</v>
+      </c>
+      <c r="H293" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I293">
+        <v>3</v>
+      </c>
+      <c r="J293" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="K293">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
+      <c r="A294" t="s">
+        <v>61</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C294" t="s">
+        <v>52</v>
+      </c>
+      <c r="D294" t="s">
+        <v>12</v>
+      </c>
+      <c r="E294" t="s">
+        <v>12</v>
+      </c>
+      <c r="F294">
+        <v>2018</v>
+      </c>
+      <c r="G294" t="s">
+        <v>53</v>
+      </c>
+      <c r="H294" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I294">
+        <v>3</v>
+      </c>
+      <c r="J294" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K294">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
+      <c r="A295" t="s">
+        <v>51</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C295" t="s">
+        <v>52</v>
+      </c>
+      <c r="D295" t="s">
+        <v>12</v>
+      </c>
+      <c r="E295" t="s">
+        <v>12</v>
+      </c>
+      <c r="F295">
+        <v>2018</v>
+      </c>
+      <c r="G295" t="s">
+        <v>53</v>
+      </c>
+      <c r="H295" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I295">
+        <v>3</v>
+      </c>
+      <c r="J295" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K295">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
+      <c r="A296" t="s">
+        <v>63</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C296" t="s">
+        <v>52</v>
+      </c>
+      <c r="D296" t="s">
+        <v>12</v>
+      </c>
+      <c r="E296" t="s">
+        <v>12</v>
+      </c>
+      <c r="F296">
+        <v>2018</v>
+      </c>
+      <c r="G296" t="s">
+        <v>53</v>
+      </c>
+      <c r="H296" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I296">
+        <v>3</v>
+      </c>
+      <c r="J296" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="K296">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
+      <c r="A297" t="s">
+        <v>60</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C297" t="s">
+        <v>52</v>
+      </c>
+      <c r="D297" t="s">
+        <v>12</v>
+      </c>
+      <c r="E297" t="s">
+        <v>12</v>
+      </c>
+      <c r="F297">
+        <v>2018</v>
+      </c>
+      <c r="G297" t="s">
+        <v>53</v>
+      </c>
+      <c r="H297" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I297">
+        <v>2</v>
+      </c>
+      <c r="J297" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="K297">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
+      <c r="A298" t="s">
+        <v>61</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C298" t="s">
+        <v>52</v>
+      </c>
+      <c r="D298" t="s">
+        <v>12</v>
+      </c>
+      <c r="E298" t="s">
+        <v>12</v>
+      </c>
+      <c r="F298">
+        <v>2018</v>
+      </c>
+      <c r="G298" t="s">
+        <v>53</v>
+      </c>
+      <c r="H298" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I298">
+        <v>2</v>
+      </c>
+      <c r="J298" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="K298">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
+      <c r="A299" t="s">
+        <v>51</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C299" t="s">
+        <v>52</v>
+      </c>
+      <c r="D299" t="s">
+        <v>12</v>
+      </c>
+      <c r="E299" t="s">
+        <v>12</v>
+      </c>
+      <c r="F299">
+        <v>2018</v>
+      </c>
+      <c r="G299" t="s">
+        <v>53</v>
+      </c>
+      <c r="H299" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I299">
+        <v>2</v>
+      </c>
+      <c r="J299" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="K299">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
+      <c r="A300" t="s">
+        <v>63</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C300" t="s">
+        <v>52</v>
+      </c>
+      <c r="D300" t="s">
+        <v>12</v>
+      </c>
+      <c r="E300" t="s">
+        <v>12</v>
+      </c>
+      <c r="F300">
+        <v>2018</v>
+      </c>
+      <c r="G300" t="s">
+        <v>53</v>
+      </c>
+      <c r="H300" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I300">
+        <v>2</v>
+      </c>
+      <c r="J300" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K300">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
+      <c r="A301" t="s">
+        <v>60</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C301" t="s">
+        <v>52</v>
+      </c>
+      <c r="D301" t="s">
+        <v>12</v>
+      </c>
+      <c r="E301" t="s">
+        <v>12</v>
+      </c>
+      <c r="F301">
+        <v>2018</v>
+      </c>
+      <c r="G301" t="s">
+        <v>53</v>
+      </c>
+      <c r="H301" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="J301" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="K301">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
+      <c r="A302" t="s">
+        <v>61</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C302" t="s">
+        <v>52</v>
+      </c>
+      <c r="D302" t="s">
+        <v>12</v>
+      </c>
+      <c r="E302" t="s">
+        <v>12</v>
+      </c>
+      <c r="F302">
+        <v>2018</v>
+      </c>
+      <c r="G302" t="s">
+        <v>53</v>
+      </c>
+      <c r="H302" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K302">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
+      <c r="A303" t="s">
+        <v>51</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C303" t="s">
+        <v>52</v>
+      </c>
+      <c r="D303" t="s">
+        <v>12</v>
+      </c>
+      <c r="E303" t="s">
+        <v>12</v>
+      </c>
+      <c r="F303">
+        <v>2018</v>
+      </c>
+      <c r="G303" t="s">
+        <v>53</v>
+      </c>
+      <c r="H303" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="K303">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
+      <c r="A304" t="s">
+        <v>63</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C304" t="s">
+        <v>52</v>
+      </c>
+      <c r="D304" t="s">
+        <v>12</v>
+      </c>
+      <c r="E304" t="s">
+        <v>12</v>
+      </c>
+      <c r="F304">
+        <v>2018</v>
+      </c>
+      <c r="G304" t="s">
+        <v>53</v>
+      </c>
+      <c r="H304" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="K304">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
+      <c r="A305" t="s">
+        <v>60</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C305" t="s">
+        <v>52</v>
+      </c>
+      <c r="D305" t="s">
+        <v>12</v>
+      </c>
+      <c r="E305" t="s">
+        <v>12</v>
+      </c>
+      <c r="F305">
+        <v>2016</v>
+      </c>
+      <c r="G305" t="s">
+        <v>53</v>
+      </c>
+      <c r="H305" t="s">
+        <v>59</v>
+      </c>
+      <c r="I305">
+        <v>6</v>
+      </c>
+      <c r="J305" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K305">
+        <v>5634</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
+      <c r="A306" t="s">
+        <v>61</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C306" t="s">
+        <v>52</v>
+      </c>
+      <c r="D306" t="s">
+        <v>12</v>
+      </c>
+      <c r="E306" t="s">
+        <v>12</v>
+      </c>
+      <c r="F306">
+        <v>2016</v>
+      </c>
+      <c r="G306" t="s">
+        <v>53</v>
+      </c>
+      <c r="H306" t="s">
+        <v>59</v>
+      </c>
+      <c r="I306">
+        <v>6</v>
+      </c>
+      <c r="J306" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="K306">
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
+      <c r="A307" t="s">
+        <v>51</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C307" t="s">
+        <v>52</v>
+      </c>
+      <c r="D307" t="s">
+        <v>12</v>
+      </c>
+      <c r="E307" t="s">
+        <v>12</v>
+      </c>
+      <c r="F307">
+        <v>2016</v>
+      </c>
+      <c r="G307" t="s">
+        <v>53</v>
+      </c>
+      <c r="H307" t="s">
+        <v>59</v>
+      </c>
+      <c r="I307">
+        <v>6</v>
+      </c>
+      <c r="J307" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="K307">
+        <v>6079</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
+      <c r="A308" t="s">
+        <v>63</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C308" t="s">
+        <v>52</v>
+      </c>
+      <c r="D308" t="s">
+        <v>12</v>
+      </c>
+      <c r="E308" t="s">
+        <v>12</v>
+      </c>
+      <c r="F308">
+        <v>2016</v>
+      </c>
+      <c r="G308" t="s">
+        <v>53</v>
+      </c>
+      <c r="H308" t="s">
+        <v>59</v>
+      </c>
+      <c r="I308">
+        <v>6</v>
+      </c>
+      <c r="J308" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K308">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
+      <c r="A309" t="s">
+        <v>60</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C309" t="s">
+        <v>52</v>
+      </c>
+      <c r="D309" t="s">
+        <v>12</v>
+      </c>
+      <c r="E309" t="s">
+        <v>12</v>
+      </c>
+      <c r="F309">
+        <v>2016</v>
+      </c>
+      <c r="G309" t="s">
+        <v>53</v>
+      </c>
+      <c r="H309" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I309">
+        <v>5</v>
+      </c>
+      <c r="J309" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="K309">
+        <v>12632</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
+      <c r="A310" t="s">
+        <v>61</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C310" t="s">
+        <v>52</v>
+      </c>
+      <c r="D310" t="s">
+        <v>12</v>
+      </c>
+      <c r="E310" t="s">
+        <v>12</v>
+      </c>
+      <c r="F310">
+        <v>2016</v>
+      </c>
+      <c r="G310" t="s">
+        <v>53</v>
+      </c>
+      <c r="H310" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I310">
+        <v>5</v>
+      </c>
+      <c r="J310" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K310">
+        <v>16984</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
+      <c r="A311" t="s">
+        <v>51</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C311" t="s">
+        <v>52</v>
+      </c>
+      <c r="D311" t="s">
+        <v>12</v>
+      </c>
+      <c r="E311" t="s">
+        <v>12</v>
+      </c>
+      <c r="F311">
+        <v>2016</v>
+      </c>
+      <c r="G311" t="s">
+        <v>53</v>
+      </c>
+      <c r="H311" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I311">
+        <v>5</v>
+      </c>
+      <c r="J311" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="K311">
+        <v>19626</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" t="s">
+        <v>63</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C312" t="s">
+        <v>52</v>
+      </c>
+      <c r="D312" t="s">
+        <v>12</v>
+      </c>
+      <c r="E312" t="s">
+        <v>12</v>
+      </c>
+      <c r="F312">
+        <v>2016</v>
+      </c>
+      <c r="G312" t="s">
+        <v>53</v>
+      </c>
+      <c r="H312" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I312">
+        <v>5</v>
+      </c>
+      <c r="J312" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K312">
+        <v>11378</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11">
+      <c r="A313" t="s">
+        <v>60</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C313" t="s">
+        <v>52</v>
+      </c>
+      <c r="D313" t="s">
+        <v>12</v>
+      </c>
+      <c r="E313" t="s">
+        <v>12</v>
+      </c>
+      <c r="F313">
+        <v>2016</v>
+      </c>
+      <c r="G313" t="s">
+        <v>53</v>
+      </c>
+      <c r="H313" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I313">
+        <v>4</v>
+      </c>
+      <c r="J313" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K313">
+        <v>16368</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11">
+      <c r="A314" t="s">
+        <v>61</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C314" t="s">
+        <v>52</v>
+      </c>
+      <c r="D314" t="s">
+        <v>12</v>
+      </c>
+      <c r="E314" t="s">
+        <v>12</v>
+      </c>
+      <c r="F314">
+        <v>2016</v>
+      </c>
+      <c r="G314" t="s">
+        <v>53</v>
+      </c>
+      <c r="H314" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I314">
+        <v>4</v>
+      </c>
+      <c r="J314" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="K314">
+        <v>17111</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11">
+      <c r="A315" t="s">
+        <v>51</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C315" t="s">
+        <v>52</v>
+      </c>
+      <c r="D315" t="s">
+        <v>12</v>
+      </c>
+      <c r="E315" t="s">
+        <v>12</v>
+      </c>
+      <c r="F315">
+        <v>2016</v>
+      </c>
+      <c r="G315" t="s">
+        <v>53</v>
+      </c>
+      <c r="H315" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I315">
+        <v>4</v>
+      </c>
+      <c r="J315" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="K315">
+        <v>18730</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11">
+      <c r="A316" t="s">
+        <v>63</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C316" t="s">
+        <v>52</v>
+      </c>
+      <c r="D316" t="s">
+        <v>12</v>
+      </c>
+      <c r="E316" t="s">
+        <v>12</v>
+      </c>
+      <c r="F316">
+        <v>2016</v>
+      </c>
+      <c r="G316" t="s">
+        <v>53</v>
+      </c>
+      <c r="H316" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I316">
+        <v>4</v>
+      </c>
+      <c r="J316" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="K316">
+        <v>14619</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11">
+      <c r="A317" t="s">
+        <v>60</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C317" t="s">
+        <v>52</v>
+      </c>
+      <c r="D317" t="s">
+        <v>12</v>
+      </c>
+      <c r="E317" t="s">
+        <v>12</v>
+      </c>
+      <c r="F317">
+        <v>2016</v>
+      </c>
+      <c r="G317" t="s">
+        <v>53</v>
+      </c>
+      <c r="H317" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I317">
+        <v>3</v>
+      </c>
+      <c r="J317" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="K317">
+        <v>10376</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11">
+      <c r="A318" t="s">
+        <v>61</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C318" t="s">
+        <v>52</v>
+      </c>
+      <c r="D318" t="s">
+        <v>12</v>
+      </c>
+      <c r="E318" t="s">
+        <v>12</v>
+      </c>
+      <c r="F318">
+        <v>2016</v>
+      </c>
+      <c r="G318" t="s">
+        <v>53</v>
+      </c>
+      <c r="H318" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I318">
+        <v>3</v>
+      </c>
+      <c r="J318" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K318">
+        <v>8415</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11">
+      <c r="A319" t="s">
+        <v>51</v>
+      </c>
+      <c r="B319" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C319" t="s">
+        <v>52</v>
+      </c>
+      <c r="D319" t="s">
+        <v>12</v>
+      </c>
+      <c r="E319" t="s">
+        <v>12</v>
+      </c>
+      <c r="F319">
+        <v>2016</v>
+      </c>
+      <c r="G319" t="s">
+        <v>53</v>
+      </c>
+      <c r="H319" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I319">
+        <v>3</v>
+      </c>
+      <c r="J319" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="K319">
+        <v>7304</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11">
+      <c r="A320" t="s">
+        <v>63</v>
+      </c>
+      <c r="B320" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C320" t="s">
+        <v>52</v>
+      </c>
+      <c r="D320" t="s">
+        <v>12</v>
+      </c>
+      <c r="E320" t="s">
+        <v>12</v>
+      </c>
+      <c r="F320">
+        <v>2016</v>
+      </c>
+      <c r="G320" t="s">
+        <v>53</v>
+      </c>
+      <c r="H320" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I320">
+        <v>3</v>
+      </c>
+      <c r="J320" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="K320">
+        <v>12322</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11">
+      <c r="A321" t="s">
+        <v>60</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C321" t="s">
+        <v>52</v>
+      </c>
+      <c r="D321" t="s">
+        <v>12</v>
+      </c>
+      <c r="E321" t="s">
+        <v>12</v>
+      </c>
+      <c r="F321">
+        <v>2016</v>
+      </c>
+      <c r="G321" t="s">
+        <v>53</v>
+      </c>
+      <c r="H321" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I321">
+        <v>2</v>
+      </c>
+      <c r="J321" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="K321">
+        <v>5955</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11">
+      <c r="A322" t="s">
+        <v>61</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C322" t="s">
+        <v>52</v>
+      </c>
+      <c r="D322" t="s">
+        <v>12</v>
+      </c>
+      <c r="E322" t="s">
+        <v>12</v>
+      </c>
+      <c r="F322">
+        <v>2016</v>
+      </c>
+      <c r="G322" t="s">
+        <v>53</v>
+      </c>
+      <c r="H322" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I322">
+        <v>2</v>
+      </c>
+      <c r="J322" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K322">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11">
+      <c r="A323" t="s">
+        <v>51</v>
+      </c>
+      <c r="B323" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C323" t="s">
+        <v>52</v>
+      </c>
+      <c r="D323" t="s">
+        <v>12</v>
+      </c>
+      <c r="E323" t="s">
+        <v>12</v>
+      </c>
+      <c r="F323">
+        <v>2016</v>
+      </c>
+      <c r="G323" t="s">
+        <v>53</v>
+      </c>
+      <c r="H323" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I323">
+        <v>2</v>
+      </c>
+      <c r="J323" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K323">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11">
+      <c r="A324" t="s">
+        <v>63</v>
+      </c>
+      <c r="B324" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C324" t="s">
+        <v>52</v>
+      </c>
+      <c r="D324" t="s">
+        <v>12</v>
+      </c>
+      <c r="E324" t="s">
+        <v>12</v>
+      </c>
+      <c r="F324">
+        <v>2016</v>
+      </c>
+      <c r="G324" t="s">
+        <v>53</v>
+      </c>
+      <c r="H324" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I324">
+        <v>2</v>
+      </c>
+      <c r="J324" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K324">
+        <v>8129</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11">
+      <c r="A325" t="s">
+        <v>60</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C325" t="s">
+        <v>52</v>
+      </c>
+      <c r="D325" t="s">
+        <v>12</v>
+      </c>
+      <c r="E325" t="s">
+        <v>12</v>
+      </c>
+      <c r="F325">
+        <v>2016</v>
+      </c>
+      <c r="G325" t="s">
+        <v>53</v>
+      </c>
+      <c r="H325" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I325">
+        <v>1</v>
+      </c>
+      <c r="J325" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="K325">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11">
+      <c r="A326" t="s">
+        <v>61</v>
+      </c>
+      <c r="B326" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C326" t="s">
+        <v>52</v>
+      </c>
+      <c r="D326" t="s">
+        <v>12</v>
+      </c>
+      <c r="E326" t="s">
+        <v>12</v>
+      </c>
+      <c r="F326">
+        <v>2016</v>
+      </c>
+      <c r="G326" t="s">
+        <v>53</v>
+      </c>
+      <c r="H326" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I326">
+        <v>1</v>
+      </c>
+      <c r="J326" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="K326">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11">
+      <c r="A327" t="s">
+        <v>51</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C327" t="s">
+        <v>52</v>
+      </c>
+      <c r="D327" t="s">
+        <v>12</v>
+      </c>
+      <c r="E327" t="s">
+        <v>12</v>
+      </c>
+      <c r="F327">
+        <v>2016</v>
+      </c>
+      <c r="G327" t="s">
+        <v>53</v>
+      </c>
+      <c r="H327" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I327">
+        <v>1</v>
+      </c>
+      <c r="J327" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="K327">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11">
+      <c r="A328" t="s">
+        <v>63</v>
+      </c>
+      <c r="B328" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C328" t="s">
+        <v>52</v>
+      </c>
+      <c r="D328" t="s">
+        <v>12</v>
+      </c>
+      <c r="E328" t="s">
+        <v>12</v>
+      </c>
+      <c r="F328">
+        <v>2016</v>
+      </c>
+      <c r="G328" t="s">
+        <v>53</v>
+      </c>
+      <c r="H328" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I328">
+        <v>1</v>
+      </c>
+      <c r="J328" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="K328">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11">
+      <c r="A329" t="s">
+        <v>60</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C329" t="s">
+        <v>52</v>
+      </c>
+      <c r="D329" t="s">
+        <v>12</v>
+      </c>
+      <c r="E329" t="s">
+        <v>12</v>
+      </c>
+      <c r="F329">
+        <v>2016</v>
+      </c>
+      <c r="G329" t="s">
+        <v>53</v>
+      </c>
+      <c r="H329" t="s">
+        <v>59</v>
+      </c>
+      <c r="I329">
+        <v>6</v>
+      </c>
+      <c r="J329" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K329">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11">
+      <c r="A330" t="s">
+        <v>61</v>
+      </c>
+      <c r="B330" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C330" t="s">
+        <v>52</v>
+      </c>
+      <c r="D330" t="s">
+        <v>12</v>
+      </c>
+      <c r="E330" t="s">
+        <v>12</v>
+      </c>
+      <c r="F330">
+        <v>2016</v>
+      </c>
+      <c r="G330" t="s">
+        <v>53</v>
+      </c>
+      <c r="H330" t="s">
+        <v>59</v>
+      </c>
+      <c r="I330">
+        <v>6</v>
+      </c>
+      <c r="J330" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="K330">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11">
+      <c r="A331" t="s">
+        <v>51</v>
+      </c>
+      <c r="B331" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C331" t="s">
+        <v>52</v>
+      </c>
+      <c r="D331" t="s">
+        <v>12</v>
+      </c>
+      <c r="E331" t="s">
+        <v>12</v>
+      </c>
+      <c r="F331">
+        <v>2016</v>
+      </c>
+      <c r="G331" t="s">
+        <v>53</v>
+      </c>
+      <c r="H331" t="s">
+        <v>59</v>
+      </c>
+      <c r="I331">
+        <v>6</v>
+      </c>
+      <c r="J331" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K331">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11">
+      <c r="A332" t="s">
+        <v>63</v>
+      </c>
+      <c r="B332" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C332" t="s">
+        <v>52</v>
+      </c>
+      <c r="D332" t="s">
+        <v>12</v>
+      </c>
+      <c r="E332" t="s">
+        <v>12</v>
+      </c>
+      <c r="F332">
+        <v>2016</v>
+      </c>
+      <c r="G332" t="s">
+        <v>53</v>
+      </c>
+      <c r="H332" t="s">
+        <v>59</v>
+      </c>
+      <c r="I332">
+        <v>6</v>
+      </c>
+      <c r="J332" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="K332">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11">
+      <c r="A333" t="s">
+        <v>60</v>
+      </c>
+      <c r="B333" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C333" t="s">
+        <v>52</v>
+      </c>
+      <c r="D333" t="s">
+        <v>12</v>
+      </c>
+      <c r="E333" t="s">
+        <v>12</v>
+      </c>
+      <c r="F333">
+        <v>2016</v>
+      </c>
+      <c r="G333" t="s">
+        <v>53</v>
+      </c>
+      <c r="H333" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I333">
+        <v>5</v>
+      </c>
+      <c r="J333" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K333">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11">
+      <c r="A334" t="s">
+        <v>61</v>
+      </c>
+      <c r="B334" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C334" t="s">
+        <v>52</v>
+      </c>
+      <c r="D334" t="s">
+        <v>12</v>
+      </c>
+      <c r="E334" t="s">
+        <v>12</v>
+      </c>
+      <c r="F334">
+        <v>2016</v>
+      </c>
+      <c r="G334" t="s">
+        <v>53</v>
+      </c>
+      <c r="H334" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I334">
+        <v>5</v>
+      </c>
+      <c r="J334" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="K334">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11">
+      <c r="A335" t="s">
+        <v>51</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C335" t="s">
+        <v>52</v>
+      </c>
+      <c r="D335" t="s">
+        <v>12</v>
+      </c>
+      <c r="E335" t="s">
+        <v>12</v>
+      </c>
+      <c r="F335">
+        <v>2016</v>
+      </c>
+      <c r="G335" t="s">
+        <v>53</v>
+      </c>
+      <c r="H335" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I335">
+        <v>5</v>
+      </c>
+      <c r="J335" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="K335">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11">
+      <c r="A336" t="s">
+        <v>63</v>
+      </c>
+      <c r="B336" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C336" t="s">
+        <v>52</v>
+      </c>
+      <c r="D336" t="s">
+        <v>12</v>
+      </c>
+      <c r="E336" t="s">
+        <v>12</v>
+      </c>
+      <c r="F336">
+        <v>2016</v>
+      </c>
+      <c r="G336" t="s">
+        <v>53</v>
+      </c>
+      <c r="H336" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I336">
+        <v>5</v>
+      </c>
+      <c r="J336" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K336">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11">
+      <c r="A337" t="s">
+        <v>60</v>
+      </c>
+      <c r="B337" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C337" t="s">
+        <v>52</v>
+      </c>
+      <c r="D337" t="s">
+        <v>12</v>
+      </c>
+      <c r="E337" t="s">
+        <v>12</v>
+      </c>
+      <c r="F337">
+        <v>2016</v>
+      </c>
+      <c r="G337" t="s">
+        <v>53</v>
+      </c>
+      <c r="H337" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I337">
+        <v>4</v>
+      </c>
+      <c r="J337" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K337">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11">
+      <c r="A338" t="s">
+        <v>61</v>
+      </c>
+      <c r="B338" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C338" t="s">
+        <v>52</v>
+      </c>
+      <c r="D338" t="s">
+        <v>12</v>
+      </c>
+      <c r="E338" t="s">
+        <v>12</v>
+      </c>
+      <c r="F338">
+        <v>2016</v>
+      </c>
+      <c r="G338" t="s">
+        <v>53</v>
+      </c>
+      <c r="H338" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I338">
+        <v>4</v>
+      </c>
+      <c r="J338" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="K338">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11">
+      <c r="A339" t="s">
+        <v>51</v>
+      </c>
+      <c r="B339" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C339" t="s">
+        <v>52</v>
+      </c>
+      <c r="D339" t="s">
+        <v>12</v>
+      </c>
+      <c r="E339" t="s">
+        <v>12</v>
+      </c>
+      <c r="F339">
+        <v>2016</v>
+      </c>
+      <c r="G339" t="s">
+        <v>53</v>
+      </c>
+      <c r="H339" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I339">
+        <v>4</v>
+      </c>
+      <c r="J339" s="9">
+        <v>0.36</v>
+      </c>
+      <c r="K339">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11">
+      <c r="A340" t="s">
+        <v>63</v>
+      </c>
+      <c r="B340" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C340" t="s">
+        <v>52</v>
+      </c>
+      <c r="D340" t="s">
+        <v>12</v>
+      </c>
+      <c r="E340" t="s">
+        <v>12</v>
+      </c>
+      <c r="F340">
+        <v>2016</v>
+      </c>
+      <c r="G340" t="s">
+        <v>53</v>
+      </c>
+      <c r="H340" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I340">
+        <v>4</v>
+      </c>
+      <c r="J340" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="K340">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11">
+      <c r="A341" t="s">
+        <v>60</v>
+      </c>
+      <c r="B341" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C341" t="s">
+        <v>52</v>
+      </c>
+      <c r="D341" t="s">
+        <v>12</v>
+      </c>
+      <c r="E341" t="s">
+        <v>12</v>
+      </c>
+      <c r="F341">
+        <v>2016</v>
+      </c>
+      <c r="G341" t="s">
+        <v>53</v>
+      </c>
+      <c r="H341" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I341">
+        <v>3</v>
+      </c>
+      <c r="J341" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="K341">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11">
+      <c r="A342" t="s">
+        <v>61</v>
+      </c>
+      <c r="B342" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C342" t="s">
+        <v>52</v>
+      </c>
+      <c r="D342" t="s">
+        <v>12</v>
+      </c>
+      <c r="E342" t="s">
+        <v>12</v>
+      </c>
+      <c r="F342">
+        <v>2016</v>
+      </c>
+      <c r="G342" t="s">
+        <v>53</v>
+      </c>
+      <c r="H342" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I342">
+        <v>3</v>
+      </c>
+      <c r="J342" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="K342">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11">
+      <c r="A343" t="s">
+        <v>51</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C343" t="s">
+        <v>52</v>
+      </c>
+      <c r="D343" t="s">
+        <v>12</v>
+      </c>
+      <c r="E343" t="s">
+        <v>12</v>
+      </c>
+      <c r="F343">
+        <v>2016</v>
+      </c>
+      <c r="G343" t="s">
+        <v>53</v>
+      </c>
+      <c r="H343" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I343">
+        <v>3</v>
+      </c>
+      <c r="J343" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K343">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11">
+      <c r="A344" t="s">
+        <v>63</v>
+      </c>
+      <c r="B344" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C344" t="s">
+        <v>52</v>
+      </c>
+      <c r="D344" t="s">
+        <v>12</v>
+      </c>
+      <c r="E344" t="s">
+        <v>12</v>
+      </c>
+      <c r="F344">
+        <v>2016</v>
+      </c>
+      <c r="G344" t="s">
+        <v>53</v>
+      </c>
+      <c r="H344" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I344">
+        <v>3</v>
+      </c>
+      <c r="J344" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="K344">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11">
+      <c r="A345" t="s">
+        <v>60</v>
+      </c>
+      <c r="B345" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C345" t="s">
+        <v>52</v>
+      </c>
+      <c r="D345" t="s">
+        <v>12</v>
+      </c>
+      <c r="E345" t="s">
+        <v>12</v>
+      </c>
+      <c r="F345">
+        <v>2016</v>
+      </c>
+      <c r="G345" t="s">
+        <v>53</v>
+      </c>
+      <c r="H345" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I345">
+        <v>2</v>
+      </c>
+      <c r="J345" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="K345">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11">
+      <c r="A346" t="s">
+        <v>61</v>
+      </c>
+      <c r="B346" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C346" t="s">
+        <v>52</v>
+      </c>
+      <c r="D346" t="s">
+        <v>12</v>
+      </c>
+      <c r="E346" t="s">
+        <v>12</v>
+      </c>
+      <c r="F346">
+        <v>2016</v>
+      </c>
+      <c r="G346" t="s">
+        <v>53</v>
+      </c>
+      <c r="H346" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I346">
+        <v>2</v>
+      </c>
+      <c r="J346" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="K346">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11">
+      <c r="A347" t="s">
+        <v>51</v>
+      </c>
+      <c r="B347" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C347" t="s">
+        <v>52</v>
+      </c>
+      <c r="D347" t="s">
+        <v>12</v>
+      </c>
+      <c r="E347" t="s">
+        <v>12</v>
+      </c>
+      <c r="F347">
+        <v>2016</v>
+      </c>
+      <c r="G347" t="s">
+        <v>53</v>
+      </c>
+      <c r="H347" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I347">
+        <v>2</v>
+      </c>
+      <c r="J347" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="K347">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11">
+      <c r="A348" t="s">
+        <v>63</v>
+      </c>
+      <c r="B348" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C348" t="s">
+        <v>52</v>
+      </c>
+      <c r="D348" t="s">
+        <v>12</v>
+      </c>
+      <c r="E348" t="s">
+        <v>12</v>
+      </c>
+      <c r="F348">
+        <v>2016</v>
+      </c>
+      <c r="G348" t="s">
+        <v>53</v>
+      </c>
+      <c r="H348" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I348">
+        <v>2</v>
+      </c>
+      <c r="J348" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K348">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11">
+      <c r="A349" t="s">
+        <v>60</v>
+      </c>
+      <c r="B349" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C349" t="s">
+        <v>52</v>
+      </c>
+      <c r="D349" t="s">
+        <v>12</v>
+      </c>
+      <c r="E349" t="s">
+        <v>12</v>
+      </c>
+      <c r="F349">
+        <v>2016</v>
+      </c>
+      <c r="G349" t="s">
+        <v>53</v>
+      </c>
+      <c r="H349" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I349">
+        <v>1</v>
+      </c>
+      <c r="J349" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="K349">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11">
+      <c r="A350" t="s">
+        <v>61</v>
+      </c>
+      <c r="B350" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C350" t="s">
+        <v>52</v>
+      </c>
+      <c r="D350" t="s">
+        <v>12</v>
+      </c>
+      <c r="E350" t="s">
+        <v>12</v>
+      </c>
+      <c r="F350">
+        <v>2016</v>
+      </c>
+      <c r="G350" t="s">
+        <v>53</v>
+      </c>
+      <c r="H350" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I350">
+        <v>1</v>
+      </c>
+      <c r="J350" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K350">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11">
+      <c r="A351" t="s">
+        <v>51</v>
+      </c>
+      <c r="B351" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C351" t="s">
+        <v>52</v>
+      </c>
+      <c r="D351" t="s">
+        <v>12</v>
+      </c>
+      <c r="E351" t="s">
+        <v>12</v>
+      </c>
+      <c r="F351">
+        <v>2016</v>
+      </c>
+      <c r="G351" t="s">
+        <v>53</v>
+      </c>
+      <c r="H351" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I351">
+        <v>1</v>
+      </c>
+      <c r="J351" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="K351">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11">
+      <c r="A352" t="s">
+        <v>63</v>
+      </c>
+      <c r="B352" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C352" t="s">
+        <v>52</v>
+      </c>
+      <c r="D352" t="s">
+        <v>12</v>
+      </c>
+      <c r="E352" t="s">
+        <v>12</v>
+      </c>
+      <c r="F352">
+        <v>2016</v>
+      </c>
+      <c r="G352" t="s">
+        <v>53</v>
+      </c>
+      <c r="H352" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I352">
+        <v>1</v>
+      </c>
+      <c r="J352" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="K352">
+        <v>700</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K178">
-    <sortCondition ref="A2:A178"/>
-    <sortCondition ref="F2:F178"/>
-    <sortCondition ref="B2:B178"/>
-    <sortCondition ref="H2:H178"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A179:K208">
+    <sortCondition ref="A179:A208"/>
+    <sortCondition descending="1" ref="I179:I208"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
